--- a/input_files/map.xlsx
+++ b/input_files/map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\01_Dave\Programs\GitHub_home\budget\input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D15F085-5ACA-4860-AE2B-13E85C5A0B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE563412-4E94-4432-98B0-8055069037A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$235</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$236</definedName>
     <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable21" hidden="1">'[1]budget 11-01-23'!$A$1:$M$198</definedName>
     <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable31" hidden="1">Table1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
@@ -53,7 +53,7 @@
     <author>David Hjelmar</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{E86291C2-A7F7-47DB-86B9-0A275AA3C2B5}">
+    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{E86291C2-A7F7-47DB-86B9-0A275AA3C2B5}">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{B4F6F719-5755-4E4E-A617-A86C8AC46908}">
+    <comment ref="F21" authorId="0" shapeId="0" xr:uid="{B4F6F719-5755-4E4E-A617-A86C8AC46908}">
       <text>
         <r>
           <rPr>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="330">
   <si>
     <t>Recurring or 1-time Expense</t>
   </si>
@@ -1125,6 +1125,9 @@
   </si>
   <si>
     <t>19 Communications</t>
+  </si>
+  <si>
+    <t>4016 Thanksgiving Offering</t>
   </si>
 </sst>
 </file>
@@ -1496,12 +1499,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L235"/>
+  <dimension ref="A1:L236"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L17" sqref="L17"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1563,7 +1566,7 @@
         <v>270</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>E2</f>
+        <f t="shared" ref="B2" si="0">E2</f>
         <v>Contributions</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1578,20 +1581,17 @@
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
+      <c r="G2" t="s">
+        <v>261</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="L2" s="1">
-        <f>IF(B2=B1,L1,L1+1)</f>
+        <f t="shared" ref="L2:L66" si="1">IF(B2=B1,L1,L1+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1600,14 +1600,14 @@
         <v>270</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f>E3</f>
+        <f t="shared" ref="B3:B66" si="2">E3</f>
         <v>Contributions</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
@@ -1615,14 +1615,20 @@
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
-        <v>242</v>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>257</v>
+        <v>4</v>
       </c>
       <c r="L3" s="1">
-        <f>IF(B3=B2,L2,L2+1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1631,7 +1637,7 @@
         <v>270</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f>E4</f>
+        <f t="shared" si="2"/>
         <v>Contributions</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1646,20 +1652,14 @@
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>212</v>
+      <c r="G4" t="s">
+        <v>242</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="L4" s="1">
-        <f>IF(B4=B3,L3,L3+1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
         <v>270</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>E5</f>
+        <f t="shared" si="2"/>
         <v>Contributions</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1684,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>193</v>
@@ -1696,7 +1696,7 @@
         <v>4</v>
       </c>
       <c r="L5" s="1">
-        <f>IF(B5=B4,L4,L4+1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
         <v>270</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f>E6</f>
+        <f t="shared" si="2"/>
         <v>Contributions</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1718,10 +1718,10 @@
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>198</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>193</v>
@@ -1733,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="L6" s="1">
-        <f>IF(B6=B5,L5,L5+1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
         <v>270</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f>E7</f>
+        <f t="shared" si="2"/>
         <v>Contributions</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1755,22 +1755,22 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
+        <v>198</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>4</v>
+        <v>303</v>
       </c>
       <c r="L7" s="1">
-        <f>IF(B7=B6,L6,L6+1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
         <v>270</v>
       </c>
       <c r="B8" s="1" t="str">
-        <f>E8</f>
+        <f t="shared" si="2"/>
         <v>Contributions</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1792,10 +1792,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>198</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>193</v>
@@ -1804,10 +1804,10 @@
         <v>212</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>4</v>
+        <v>303</v>
       </c>
       <c r="L8" s="1">
-        <f>IF(B8=B7,L7,L7+1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
         <v>270</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f>E9</f>
+        <f t="shared" ref="B9" si="3">E9</f>
         <v>Contributions</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1829,10 +1829,10 @@
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>198</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>193</v>
@@ -1841,10 +1841,10 @@
         <v>212</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>4</v>
+        <v>303</v>
       </c>
       <c r="L9" s="1">
-        <f>IF(B9=B8,L8,L8+1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1853,7 +1853,7 @@
         <v>270</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f>E10</f>
+        <f t="shared" si="2"/>
         <v>Contributions</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1865,20 +1865,23 @@
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>3</v>
+      <c r="F10" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>233</v>
+        <v>9</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="L10" s="1">
-        <f>IF(B10=B9,L9,L9+1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1887,8 +1890,8 @@
         <v>270</v>
       </c>
       <c r="B11" s="1" t="str">
-        <f>E11</f>
-        <v>Contributions - pledge</v>
+        <f t="shared" si="2"/>
+        <v>Contributions</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>277</v>
@@ -1897,26 +1900,26 @@
         <v>277</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>185</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L11" s="1">
-        <f>IF(B11=B10,L10,L10+1)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1924,8 +1927,8 @@
         <v>270</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f>E12</f>
-        <v>Contributions - pledge</v>
+        <f t="shared" si="2"/>
+        <v>Contributions</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>277</v>
@@ -1934,13 +1937,13 @@
         <v>277</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>185</v>
+        <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>193</v>
@@ -1952,8 +1955,8 @@
         <v>4</v>
       </c>
       <c r="L12" s="1">
-        <f>IF(B12=B11,L11,L11+1)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1961,36 +1964,36 @@
         <v>270</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f>E13</f>
-        <v>Investment Income - 1. Endowment + Checking Account</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>312</v>
+        <f t="shared" si="2"/>
+        <v>Contributions</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>219</v>
+      <c r="G13" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>192</v>
+        <v>4</v>
       </c>
       <c r="L13" s="1">
-        <f>IF(B13=B12,L12,L12+1)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1998,23 +2001,23 @@
         <v>270</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f>E14</f>
-        <v>Investment Income - 1. Endowment + Checking Account</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>Contributions</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>193</v>
@@ -2022,12 +2025,9 @@
       <c r="J14" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="1">
-        <f>IF(B14=B13,L13,L13+1)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2035,36 +2035,36 @@
         <v>270</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f>E15</f>
-        <v>Investment Income - 2. Schermerhorn and Birch Funds</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>313</v>
+        <f t="shared" si="2"/>
+        <v>Contributions - pledge</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>207</v>
+      <c r="G15" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L15" s="1">
-        <f>IF(B15=B14,L14,L14+1)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2072,36 +2072,36 @@
         <v>270</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f>E16</f>
-        <v>Investment Income - 2. Schermerhorn and Birch Funds</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>313</v>
+        <f t="shared" si="2"/>
+        <v>Contributions - pledge</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>208</v>
+      <c r="G16" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L16" s="1">
-        <f>IF(B16=B15,L15,L15+1)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2109,23 +2109,23 @@
         <v>270</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f>E17</f>
-        <v>Investment Income - 3. Covenant Fund</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>279</v>
+        <f t="shared" si="2"/>
+        <v>Investment Income - 1. Endowment + Checking Account</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>193</v>
@@ -2134,11 +2134,11 @@
         <v>211</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="L17" s="1">
-        <f>IF(B17=B16,L16,L16+1)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2146,23 +2146,23 @@
         <v>270</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f>E18</f>
-        <v>Investment Income - 3. Covenant Fund</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>279</v>
+        <f t="shared" si="2"/>
+        <v>Investment Income - 1. Endowment + Checking Account</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>267</v>
+        <v>3</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>193</v>
@@ -2174,8 +2174,8 @@
         <v>4</v>
       </c>
       <c r="L18" s="1">
-        <f>IF(B18=B17,L17,L17+1)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -2183,23 +2183,23 @@
         <v>270</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f>E19</f>
-        <v>Investment Income - 3. Covenant Fund</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>279</v>
+        <f t="shared" si="2"/>
+        <v>Investment Income - 2. Schermerhorn and Birch Funds</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>193</v>
@@ -2211,8 +2211,8 @@
         <v>4</v>
       </c>
       <c r="L19" s="1">
-        <f>IF(B19=B18,L18,L18+1)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -2220,8 +2220,8 @@
         <v>270</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f>E20</f>
-        <v>Investment Income - 4. UP Mission</v>
+        <f t="shared" si="2"/>
+        <v>Investment Income - 2. Schermerhorn and Birch Funds</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>278</v>
@@ -2230,13 +2230,13 @@
         <v>278</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>317</v>
+        <v>208</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>193</v>
@@ -2248,8 +2248,8 @@
         <v>4</v>
       </c>
       <c r="L20" s="1">
-        <f>IF(B20=B19,L19,L19+1)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -2257,23 +2257,23 @@
         <v>270</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f>E21</f>
-        <v>Investment Income - 4. UP Mission</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>278</v>
+        <f t="shared" si="2"/>
+        <v>Investment Income - 3. Covenant Fund</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>269</v>
+        <v>3</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>193</v>
@@ -2285,8 +2285,8 @@
         <v>4</v>
       </c>
       <c r="L21" s="1">
-        <f>IF(B21=B20,L20,L20+1)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -2294,23 +2294,23 @@
         <v>270</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f>E22</f>
-        <v>Investment Income - 5. Tercentenary</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>278</v>
+        <f t="shared" si="2"/>
+        <v>Investment Income - 3. Covenant Fund</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>319</v>
+        <v>13</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>193</v>
@@ -2322,8 +2322,8 @@
         <v>4</v>
       </c>
       <c r="L22" s="1">
-        <f>IF(B22=B21,L21,L21+1)</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -2331,23 +2331,23 @@
         <v>270</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f>E23</f>
-        <v>Investment Income - Linear Adjustments</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>278</v>
+        <f t="shared" si="2"/>
+        <v>Investment Income - 3. Covenant Fund</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>308</v>
+        <v>13</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>273</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>193</v>
@@ -2356,11 +2356,11 @@
         <v>211</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>192</v>
+        <v>4</v>
       </c>
       <c r="L23" s="1">
-        <f>IF(B23=B22,L22,L22+1)</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -2368,8 +2368,8 @@
         <v>270</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f>E24</f>
-        <v>Investment Income - Linear Adjustments</v>
+        <f t="shared" si="2"/>
+        <v>Investment Income - 4. UP Mission</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>278</v>
@@ -2378,13 +2378,13 @@
         <v>278</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>309</v>
+        <v>17</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>317</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>193</v>
@@ -2396,8 +2396,8 @@
         <v>4</v>
       </c>
       <c r="L24" s="1">
-        <f>IF(B24=B23,L23,L23+1)</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -2405,8 +2405,8 @@
         <v>270</v>
       </c>
       <c r="B25" s="1" t="str">
-        <f>E25</f>
-        <v>Investment Income - Linear Adjustments</v>
+        <f t="shared" si="2"/>
+        <v>Investment Income - 4. UP Mission</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>278</v>
@@ -2415,13 +2415,13 @@
         <v>278</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>318</v>
+      <c r="G25" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>193</v>
@@ -2433,8 +2433,8 @@
         <v>4</v>
       </c>
       <c r="L25" s="1">
-        <f>IF(B25=B24,L24,L24+1)</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -2442,8 +2442,8 @@
         <v>270</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f>E26</f>
-        <v>Investment Income - Linear Adjustments</v>
+        <f t="shared" si="2"/>
+        <v>Investment Income - 5. Tercentenary</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>278</v>
@@ -2452,13 +2452,13 @@
         <v>278</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>310</v>
+        <v>18</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>319</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>193</v>
@@ -2470,8 +2470,8 @@
         <v>4</v>
       </c>
       <c r="L26" s="1">
-        <f>IF(B26=B25,L25,L25+1)</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -2479,7 +2479,7 @@
         <v>270</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f>E27</f>
+        <f t="shared" si="2"/>
         <v>Investment Income - Linear Adjustments</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -2492,10 +2492,10 @@
         <v>311</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>193</v>
@@ -2504,10 +2504,10 @@
         <v>211</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="L27" s="1">
-        <f>IF(B27=B26,L26,L26+1)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -2516,14 +2516,14 @@
         <v>270</v>
       </c>
       <c r="B28" s="1" t="str">
-        <f>E28</f>
+        <f t="shared" si="2"/>
         <v>Investment Income - Linear Adjustments</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>279</v>
+      <c r="C28" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>311</v>
@@ -2532,7 +2532,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>193</v>
@@ -2544,7 +2544,7 @@
         <v>4</v>
       </c>
       <c r="L28" s="1">
-        <f>IF(B28=B27,L27,L27+1)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -2553,23 +2553,23 @@
         <v>270</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f>E29</f>
+        <f t="shared" si="2"/>
         <v>Investment Income - Linear Adjustments</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>279</v>
+      <c r="C29" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>311</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>193</v>
@@ -2581,7 +2581,7 @@
         <v>4</v>
       </c>
       <c r="L29" s="1">
-        <f>IF(B29=B28,L28,L28+1)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -2590,23 +2590,23 @@
         <v>270</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f>E30</f>
+        <f t="shared" si="2"/>
         <v>Investment Income - Linear Adjustments</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>279</v>
+      <c r="C30" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>311</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>306</v>
+        <v>17</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>310</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>193</v>
@@ -2618,7 +2618,7 @@
         <v>4</v>
       </c>
       <c r="L30" s="1">
-        <f>IF(B30=B29,L29,L29+1)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -2627,23 +2627,23 @@
         <v>270</v>
       </c>
       <c r="B31" s="1" t="str">
-        <f>E31</f>
-        <v>Other income</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>Investment Income - Linear Adjustments</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>320</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>193</v>
@@ -2655,8 +2655,8 @@
         <v>4</v>
       </c>
       <c r="L31" s="1">
-        <f>IF(B31=B30,L30,L30+1)</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -2664,23 +2664,23 @@
         <v>270</v>
       </c>
       <c r="B32" s="1" t="str">
-        <f>E32</f>
-        <v>Other income</v>
+        <f t="shared" si="2"/>
+        <v>Investment Income - Linear Adjustments</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>19</v>
+        <v>279</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>21</v>
+      <c r="G32" s="6" t="s">
+        <v>307</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>193</v>
@@ -2692,8 +2692,8 @@
         <v>4</v>
       </c>
       <c r="L32" s="1">
-        <f>IF(B32=B31,L31,L31+1)</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -2701,23 +2701,23 @@
         <v>270</v>
       </c>
       <c r="B33" s="1" t="str">
-        <f>E33</f>
-        <v>Other income</v>
+        <f t="shared" si="2"/>
+        <v>Investment Income - Linear Adjustments</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>19</v>
+        <v>279</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>305</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>193</v>
@@ -2729,8 +2729,8 @@
         <v>4</v>
       </c>
       <c r="L33" s="1">
-        <f>IF(B33=B32,L32,L32+1)</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -2738,23 +2738,23 @@
         <v>270</v>
       </c>
       <c r="B34" s="1" t="str">
-        <f>E34</f>
-        <v>Other income</v>
+        <f t="shared" si="2"/>
+        <v>Investment Income - Linear Adjustments</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>19</v>
+        <v>279</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>214</v>
+        <v>13</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>306</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>193</v>
@@ -2766,8 +2766,8 @@
         <v>4</v>
       </c>
       <c r="L34" s="1">
-        <f>IF(B34=B33,L33,L33+1)</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -2775,7 +2775,7 @@
         <v>270</v>
       </c>
       <c r="B35" s="1" t="str">
-        <f>E35</f>
+        <f t="shared" si="2"/>
         <v>Other income</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2788,10 +2788,10 @@
         <v>19</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>193</v>
@@ -2803,7 +2803,7 @@
         <v>4</v>
       </c>
       <c r="L35" s="1">
-        <f>IF(B35=B34,L34,L34+1)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
         <v>270</v>
       </c>
       <c r="B36" s="1" t="str">
-        <f>E36</f>
+        <f t="shared" si="2"/>
         <v>Other income</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2828,16 +2828,19 @@
         <v>3</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>234</v>
+        <v>21</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="L36" s="1">
-        <f>IF(B36=B35,L35,L35+1)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -2846,33 +2849,36 @@
         <v>270</v>
       </c>
       <c r="B37" s="1" t="str">
-        <f>E37</f>
-        <v>Xbudget</v>
+        <f t="shared" si="2"/>
+        <v>Other income</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>259</v>
+        <v>19</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G37" t="s">
-        <v>261</v>
+        <v>3</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="J37" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="K37" s="1" t="s">
-        <v>257</v>
+        <v>4</v>
       </c>
       <c r="L37" s="1">
-        <f>IF(B37=B36,L36,L36+1)</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -2880,33 +2886,36 @@
         <v>270</v>
       </c>
       <c r="B38" s="1" t="str">
-        <f>E38</f>
-        <v>Xbudget</v>
+        <f t="shared" si="2"/>
+        <v>Other income</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>259</v>
+        <v>19</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G38" t="s">
-        <v>304</v>
+        <v>3</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="J38" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="K38" s="1" t="s">
-        <v>303</v>
+        <v>4</v>
       </c>
       <c r="L38" s="1">
-        <f>IF(B38=B37,L37,L37+1)</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -2914,75 +2923,78 @@
         <v>270</v>
       </c>
       <c r="B39" s="1" t="str">
-        <f>E39</f>
-        <v>Xbudget</v>
+        <f t="shared" si="2"/>
+        <v>Other income</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>259</v>
+        <v>19</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G39" t="s">
-        <v>302</v>
+        <v>24</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="J39" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="K39" s="1" t="s">
-        <v>303</v>
+        <v>4</v>
       </c>
       <c r="L39" s="1">
-        <f>IF(B39=B38,L38,L38+1)</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B40" s="1" t="str">
-        <f>E40</f>
-        <v>Xbudget</v>
+        <f t="shared" si="2"/>
+        <v>Other income</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>259</v>
+        <v>19</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G40" t="s">
-        <v>272</v>
+        <v>3</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>257</v>
+      <c r="J40" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="L40" s="1">
-        <f>IF(B40=B39,L39,L39+1)</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="4" t="s">
         <v>270</v>
       </c>
       <c r="B41" s="1" t="str">
-        <f>E41</f>
+        <f t="shared" si="2"/>
         <v>Xbudget</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -2998,7 +3010,7 @@
         <v>259</v>
       </c>
       <c r="G41" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>193</v>
@@ -3007,7 +3019,7 @@
         <v>257</v>
       </c>
       <c r="L41" s="1">
-        <f>IF(B41=B40,L40,L40+1)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -3016,7 +3028,7 @@
         <v>270</v>
       </c>
       <c r="B42" s="1" t="str">
-        <f>E42</f>
+        <f t="shared" si="2"/>
         <v>Xbudget</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -3032,7 +3044,7 @@
         <v>259</v>
       </c>
       <c r="G42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>193</v>
@@ -3041,7 +3053,7 @@
         <v>257</v>
       </c>
       <c r="L42" s="1">
-        <f>IF(B42=B41,L41,L41+1)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -3050,7 +3062,7 @@
         <v>270</v>
       </c>
       <c r="B43" s="1" t="str">
-        <f>E43</f>
+        <f t="shared" si="2"/>
         <v>Xbudget</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -3066,7 +3078,7 @@
         <v>259</v>
       </c>
       <c r="G43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>193</v>
@@ -3075,7 +3087,7 @@
         <v>257</v>
       </c>
       <c r="L43" s="1">
-        <f>IF(B43=B42,L42,L42+1)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -3084,7 +3096,7 @@
         <v>270</v>
       </c>
       <c r="B44" s="1" t="str">
-        <f>E44</f>
+        <f t="shared" si="2"/>
         <v>Xbudget</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -3100,7 +3112,7 @@
         <v>259</v>
       </c>
       <c r="G44" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>193</v>
@@ -3109,7 +3121,7 @@
         <v>257</v>
       </c>
       <c r="L44" s="1">
-        <f>IF(B44=B43,L43,L43+1)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -3118,7 +3130,7 @@
         <v>270</v>
       </c>
       <c r="B45" s="1" t="str">
-        <f>E45</f>
+        <f t="shared" si="2"/>
         <v>Xbudget</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -3134,7 +3146,7 @@
         <v>259</v>
       </c>
       <c r="G45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>193</v>
@@ -3143,7 +3155,7 @@
         <v>257</v>
       </c>
       <c r="L45" s="1">
-        <f>IF(B45=B44,L44,L44+1)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -3152,7 +3164,7 @@
         <v>270</v>
       </c>
       <c r="B46" s="1" t="str">
-        <f>E46</f>
+        <f t="shared" si="2"/>
         <v>Xbudget</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -3168,7 +3180,7 @@
         <v>259</v>
       </c>
       <c r="G46" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>193</v>
@@ -3177,7 +3189,7 @@
         <v>257</v>
       </c>
       <c r="L46" s="1">
-        <f>IF(B46=B45,L45,L45+1)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -3186,7 +3198,7 @@
         <v>270</v>
       </c>
       <c r="B47" s="1" t="str">
-        <f>E47</f>
+        <f t="shared" si="2"/>
         <v>Xbudget</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -3202,7 +3214,7 @@
         <v>259</v>
       </c>
       <c r="G47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>193</v>
@@ -3211,45 +3223,42 @@
         <v>257</v>
       </c>
       <c r="L47" s="1">
-        <f>IF(B47=B46,L46,L46+1)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B48" s="1" t="str">
-        <f>E48</f>
-        <v>Adult Ed</v>
+        <f t="shared" si="2"/>
+        <v>Xbudget</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>82</v>
+        <v>259</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>213</v>
+        <v>259</v>
+      </c>
+      <c r="G48" t="s">
+        <v>247</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="K48" s="1" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="L48" s="1">
-        <f>IF(B48=B47,L47,L47+1)</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -3257,7 +3266,7 @@
         <v>271</v>
       </c>
       <c r="B49" s="1" t="str">
-        <f>E49</f>
+        <f t="shared" si="2"/>
         <v>Adult Ed</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -3273,7 +3282,7 @@
         <v>3</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>193</v>
@@ -3285,7 +3294,7 @@
         <v>4</v>
       </c>
       <c r="L49" s="1">
-        <f>IF(B49=B48,L48,L48+1)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -3294,7 +3303,7 @@
         <v>271</v>
       </c>
       <c r="B50" s="1" t="str">
-        <f>E50</f>
+        <f t="shared" si="2"/>
         <v>Adult Ed</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -3310,7 +3319,7 @@
         <v>3</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>193</v>
@@ -3322,7 +3331,7 @@
         <v>4</v>
       </c>
       <c r="L50" s="1">
-        <f>IF(B50=B49,L49,L49+1)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -3331,7 +3340,7 @@
         <v>271</v>
       </c>
       <c r="B51" s="1" t="str">
-        <f>E51</f>
+        <f t="shared" si="2"/>
         <v>Adult Ed</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -3346,8 +3355,8 @@
       <c r="F51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G51" t="s">
-        <v>240</v>
+      <c r="G51" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>193</v>
@@ -3356,10 +3365,10 @@
         <v>211</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>258</v>
+        <v>4</v>
       </c>
       <c r="L51" s="1">
-        <f>IF(B51=B50,L50,L50+1)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -3368,7 +3377,7 @@
         <v>271</v>
       </c>
       <c r="B52" s="1" t="str">
-        <f>E52</f>
+        <f t="shared" si="2"/>
         <v>Adult Ed</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -3383,8 +3392,8 @@
       <c r="F52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>83</v>
+      <c r="G52" t="s">
+        <v>240</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>193</v>
@@ -3393,10 +3402,10 @@
         <v>211</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>4</v>
+        <v>258</v>
       </c>
       <c r="L52" s="1">
-        <f>IF(B52=B51,L51,L51+1)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -3405,7 +3414,7 @@
         <v>271</v>
       </c>
       <c r="B53" s="1" t="str">
-        <f>E53</f>
+        <f t="shared" si="2"/>
         <v>Adult Ed</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -3421,7 +3430,7 @@
         <v>3</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>193</v>
@@ -3433,7 +3442,7 @@
         <v>4</v>
       </c>
       <c r="L53" s="1">
-        <f>IF(B53=B52,L52,L52+1)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -3442,7 +3451,7 @@
         <v>271</v>
       </c>
       <c r="B54" s="1" t="str">
-        <f>E54</f>
+        <f t="shared" si="2"/>
         <v>Adult Ed</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -3458,7 +3467,7 @@
         <v>3</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>193</v>
@@ -3470,7 +3479,7 @@
         <v>4</v>
       </c>
       <c r="L54" s="1">
-        <f>IF(B54=B53,L53,L53+1)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -3479,7 +3488,7 @@
         <v>271</v>
       </c>
       <c r="B55" s="1" t="str">
-        <f>E55</f>
+        <f t="shared" si="2"/>
         <v>Adult Ed</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -3495,7 +3504,7 @@
         <v>3</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>193</v>
@@ -3507,7 +3516,7 @@
         <v>4</v>
       </c>
       <c r="L55" s="1">
-        <f>IF(B55=B54,L54,L54+1)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -3516,7 +3525,7 @@
         <v>271</v>
       </c>
       <c r="B56" s="1" t="str">
-        <f>E56</f>
+        <f t="shared" si="2"/>
         <v>Adult Ed</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -3532,7 +3541,7 @@
         <v>3</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>195</v>
+        <v>85</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>193</v>
@@ -3544,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="L56" s="1">
-        <f>IF(B56=B55,L55,L55+1)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -3553,7 +3562,7 @@
         <v>271</v>
       </c>
       <c r="B57" s="1" t="str">
-        <f>E57</f>
+        <f t="shared" si="2"/>
         <v>Adult Ed</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -3569,7 +3578,7 @@
         <v>3</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>193</v>
@@ -3581,7 +3590,7 @@
         <v>4</v>
       </c>
       <c r="L57" s="1">
-        <f>IF(B57=B56,L56,L56+1)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -3590,7 +3599,7 @@
         <v>271</v>
       </c>
       <c r="B58" s="1" t="str">
-        <f>E58</f>
+        <f t="shared" si="2"/>
         <v>Adult Ed</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -3606,7 +3615,7 @@
         <v>3</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>193</v>
@@ -3618,7 +3627,7 @@
         <v>4</v>
       </c>
       <c r="L58" s="1">
-        <f>IF(B58=B57,L57,L57+1)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -3627,23 +3636,23 @@
         <v>271</v>
       </c>
       <c r="B59" s="1" t="str">
-        <f>E59</f>
-        <v>Archives</v>
+        <f t="shared" si="2"/>
+        <v>Adult Ed</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>193</v>
@@ -3655,8 +3664,8 @@
         <v>4</v>
       </c>
       <c r="L59" s="1">
-        <f>IF(B59=B58,L58,L58+1)</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -3664,7 +3673,7 @@
         <v>271</v>
       </c>
       <c r="B60" s="1" t="str">
-        <f>E60</f>
+        <f t="shared" si="2"/>
         <v>Archives</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -3677,10 +3686,10 @@
         <v>155</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>193</v>
@@ -3692,7 +3701,7 @@
         <v>4</v>
       </c>
       <c r="L60" s="1">
-        <f>IF(B60=B59,L59,L59+1)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -3701,7 +3710,7 @@
         <v>271</v>
       </c>
       <c r="B61" s="1" t="str">
-        <f>E61</f>
+        <f t="shared" si="2"/>
         <v>Archives</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -3714,10 +3723,10 @@
         <v>155</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>193</v>
@@ -3729,7 +3738,7 @@
         <v>4</v>
       </c>
       <c r="L61" s="1">
-        <f>IF(B61=B60,L60,L60+1)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -3738,36 +3747,36 @@
         <v>271</v>
       </c>
       <c r="B62" s="1" t="str">
-        <f>E62</f>
-        <v>Care &amp; Support</v>
+        <f t="shared" si="2"/>
+        <v>Archives</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L62" s="1">
-        <f>IF(B62=B61,L61,L61+1)</f>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -3775,7 +3784,7 @@
         <v>271</v>
       </c>
       <c r="B63" s="1" t="str">
-        <f>E63</f>
+        <f t="shared" si="2"/>
         <v>Care &amp; Support</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -3791,7 +3800,7 @@
         <v>3</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>193</v>
@@ -3803,7 +3812,7 @@
         <v>4</v>
       </c>
       <c r="L63" s="1">
-        <f>IF(B63=B62,L62,L62+1)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -3812,7 +3821,7 @@
         <v>271</v>
       </c>
       <c r="B64" s="1" t="str">
-        <f>E64</f>
+        <f t="shared" si="2"/>
         <v>Care &amp; Support</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -3828,7 +3837,7 @@
         <v>3</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>193</v>
@@ -3840,7 +3849,7 @@
         <v>4</v>
       </c>
       <c r="L64" s="1">
-        <f>IF(B64=B63,L63,L63+1)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -3849,7 +3858,7 @@
         <v>271</v>
       </c>
       <c r="B65" s="1" t="str">
-        <f>E65</f>
+        <f t="shared" si="2"/>
         <v>Care &amp; Support</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -3865,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>193</v>
@@ -3877,7 +3886,7 @@
         <v>4</v>
       </c>
       <c r="L65" s="1">
-        <f>IF(B65=B64,L64,L64+1)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -3886,7 +3895,7 @@
         <v>271</v>
       </c>
       <c r="B66" s="1" t="str">
-        <f>E66</f>
+        <f t="shared" si="2"/>
         <v>Care &amp; Support</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -3902,7 +3911,7 @@
         <v>3</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>193</v>
@@ -3914,7 +3923,7 @@
         <v>4</v>
       </c>
       <c r="L66" s="1">
-        <f>IF(B66=B65,L65,L65+1)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -3923,36 +3932,36 @@
         <v>271</v>
       </c>
       <c r="B67" s="1" t="str">
-        <f>E67</f>
-        <v>Communications</v>
+        <f t="shared" ref="B67:B130" si="4">E67</f>
+        <v>Care &amp; Support</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L67" s="1">
-        <f>IF(B67=B66,L66,L66+1)</f>
-        <v>14</v>
+        <f t="shared" ref="L67:L130" si="5">IF(B67=B66,L66,L66+1)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -3960,7 +3969,7 @@
         <v>271</v>
       </c>
       <c r="B68" s="1" t="str">
-        <f>E68</f>
+        <f t="shared" si="4"/>
         <v>Communications</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -3976,7 +3985,7 @@
         <v>3</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>193</v>
@@ -3988,7 +3997,7 @@
         <v>4</v>
       </c>
       <c r="L68" s="1">
-        <f>IF(B68=B67,L67,L67+1)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
@@ -3997,7 +4006,7 @@
         <v>271</v>
       </c>
       <c r="B69" s="1" t="str">
-        <f>E69</f>
+        <f t="shared" si="4"/>
         <v>Communications</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -4013,7 +4022,7 @@
         <v>3</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>193</v>
@@ -4025,7 +4034,7 @@
         <v>4</v>
       </c>
       <c r="L69" s="1">
-        <f>IF(B69=B68,L68,L68+1)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
@@ -4034,7 +4043,7 @@
         <v>271</v>
       </c>
       <c r="B70" s="1" t="str">
-        <f>E70</f>
+        <f t="shared" si="4"/>
         <v>Communications</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -4050,7 +4059,7 @@
         <v>3</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>193</v>
@@ -4062,7 +4071,7 @@
         <v>4</v>
       </c>
       <c r="L70" s="1">
-        <f>IF(B70=B69,L69,L69+1)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
@@ -4071,7 +4080,7 @@
         <v>271</v>
       </c>
       <c r="B71" s="1" t="str">
-        <f>E71</f>
+        <f t="shared" si="4"/>
         <v>Communications</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -4087,7 +4096,7 @@
         <v>3</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>193</v>
@@ -4099,7 +4108,7 @@
         <v>4</v>
       </c>
       <c r="L71" s="1">
-        <f>IF(B71=B70,L70,L70+1)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
@@ -4108,7 +4117,7 @@
         <v>271</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f>E72</f>
+        <f t="shared" si="4"/>
         <v>Communications</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -4124,7 +4133,7 @@
         <v>3</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>193</v>
@@ -4136,7 +4145,7 @@
         <v>4</v>
       </c>
       <c r="L72" s="1">
-        <f>IF(B72=B71,L71,L71+1)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
@@ -4145,23 +4154,23 @@
         <v>271</v>
       </c>
       <c r="B73" s="1" t="str">
-        <f>E73</f>
-        <v>Creation Care</v>
+        <f t="shared" si="4"/>
+        <v>Communications</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>193</v>
@@ -4173,8 +4182,8 @@
         <v>4</v>
       </c>
       <c r="L73" s="1">
-        <f>IF(B73=B72,L72,L72+1)</f>
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -4182,7 +4191,7 @@
         <v>271</v>
       </c>
       <c r="B74" s="1" t="str">
-        <f>E74</f>
+        <f t="shared" si="4"/>
         <v>Creation Care</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -4198,7 +4207,7 @@
         <v>3</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>193</v>
@@ -4210,7 +4219,7 @@
         <v>4</v>
       </c>
       <c r="L74" s="1">
-        <f>IF(B74=B73,L73,L73+1)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -4219,7 +4228,7 @@
         <v>271</v>
       </c>
       <c r="B75" s="1" t="str">
-        <f>E75</f>
+        <f t="shared" si="4"/>
         <v>Creation Care</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -4235,7 +4244,7 @@
         <v>3</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>193</v>
@@ -4247,7 +4256,7 @@
         <v>4</v>
       </c>
       <c r="L75" s="1">
-        <f>IF(B75=B74,L74,L74+1)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -4256,7 +4265,7 @@
         <v>271</v>
       </c>
       <c r="B76" s="1" t="str">
-        <f>E76</f>
+        <f t="shared" si="4"/>
         <v>Creation Care</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -4272,7 +4281,7 @@
         <v>3</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>193</v>
@@ -4284,7 +4293,7 @@
         <v>4</v>
       </c>
       <c r="L76" s="1">
-        <f>IF(B76=B75,L75,L75+1)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -4293,23 +4302,23 @@
         <v>271</v>
       </c>
       <c r="B77" s="1" t="str">
-        <f>E77</f>
-        <v>Finance</v>
+        <f t="shared" si="4"/>
+        <v>Creation Care</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>193</v>
@@ -4321,8 +4330,8 @@
         <v>4</v>
       </c>
       <c r="L77" s="1">
-        <f>IF(B77=B76,L76,L76+1)</f>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -4330,7 +4339,7 @@
         <v>271</v>
       </c>
       <c r="B78" s="1" t="str">
-        <f>E78</f>
+        <f t="shared" si="4"/>
         <v>Finance</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -4346,19 +4355,19 @@
         <v>3</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L78" s="1">
-        <f>IF(B78=B77,L77,L77+1)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -4367,7 +4376,7 @@
         <v>271</v>
       </c>
       <c r="B79" s="1" t="str">
-        <f>E79</f>
+        <f t="shared" si="4"/>
         <v>Finance</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -4383,19 +4392,19 @@
         <v>3</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L79" s="1">
-        <f>IF(B79=B78,L78,L78+1)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -4404,7 +4413,7 @@
         <v>271</v>
       </c>
       <c r="B80" s="1" t="str">
-        <f>E80</f>
+        <f t="shared" si="4"/>
         <v>Finance</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -4420,19 +4429,19 @@
         <v>3</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L80" s="1">
-        <f>IF(B80=B79,L79,L79+1)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -4441,7 +4450,7 @@
         <v>271</v>
       </c>
       <c r="B81" s="1" t="str">
-        <f>E81</f>
+        <f t="shared" si="4"/>
         <v>Finance</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -4457,7 +4466,7 @@
         <v>3</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>193</v>
@@ -4469,7 +4478,7 @@
         <v>4</v>
       </c>
       <c r="L81" s="1">
-        <f>IF(B81=B80,L80,L80+1)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -4478,7 +4487,7 @@
         <v>271</v>
       </c>
       <c r="B82" s="1" t="str">
-        <f>E82</f>
+        <f t="shared" si="4"/>
         <v>Finance</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -4494,7 +4503,7 @@
         <v>3</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>193</v>
@@ -4506,7 +4515,7 @@
         <v>4</v>
       </c>
       <c r="L82" s="1">
-        <f>IF(B82=B81,L81,L81+1)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -4515,7 +4524,7 @@
         <v>271</v>
       </c>
       <c r="B83" s="1" t="str">
-        <f>E83</f>
+        <f t="shared" si="4"/>
         <v>Finance</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -4531,7 +4540,7 @@
         <v>3</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>193</v>
@@ -4543,7 +4552,7 @@
         <v>4</v>
       </c>
       <c r="L83" s="1">
-        <f>IF(B83=B82,L82,L82+1)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -4552,7 +4561,7 @@
         <v>271</v>
       </c>
       <c r="B84" s="1" t="str">
-        <f>E84</f>
+        <f t="shared" si="4"/>
         <v>Finance</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -4568,7 +4577,7 @@
         <v>3</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>193</v>
@@ -4580,7 +4589,7 @@
         <v>4</v>
       </c>
       <c r="L84" s="1">
-        <f>IF(B84=B83,L83,L83+1)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -4589,7 +4598,7 @@
         <v>271</v>
       </c>
       <c r="B85" s="1" t="str">
-        <f>E85</f>
+        <f t="shared" si="4"/>
         <v>Finance</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -4605,7 +4614,7 @@
         <v>3</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>193</v>
@@ -4617,7 +4626,7 @@
         <v>4</v>
       </c>
       <c r="L85" s="1">
-        <f>IF(B85=B84,L84,L84+1)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -4626,36 +4635,36 @@
         <v>271</v>
       </c>
       <c r="B86" s="1" t="str">
-        <f>E86</f>
-        <v>M&amp;B</v>
+        <f t="shared" si="4"/>
+        <v>Finance</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L86" s="1">
-        <f>IF(B86=B85,L85,L85+1)</f>
-        <v>17</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -4663,7 +4672,7 @@
         <v>271</v>
       </c>
       <c r="B87" s="1" t="str">
-        <f>E87</f>
+        <f t="shared" si="4"/>
         <v>M&amp;B</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -4679,7 +4688,7 @@
         <v>13</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>193</v>
@@ -4691,7 +4700,7 @@
         <v>4</v>
       </c>
       <c r="L87" s="1">
-        <f>IF(B87=B86,L86,L86+1)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -4700,7 +4709,7 @@
         <v>271</v>
       </c>
       <c r="B88" s="1" t="str">
-        <f>E88</f>
+        <f t="shared" si="4"/>
         <v>M&amp;B</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -4716,7 +4725,7 @@
         <v>13</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>193</v>
@@ -4728,7 +4737,7 @@
         <v>4</v>
       </c>
       <c r="L88" s="1">
-        <f>IF(B88=B87,L87,L87+1)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -4737,7 +4746,7 @@
         <v>271</v>
       </c>
       <c r="B89" s="1" t="str">
-        <f>E89</f>
+        <f t="shared" si="4"/>
         <v>M&amp;B</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -4753,7 +4762,7 @@
         <v>13</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>193</v>
@@ -4765,7 +4774,7 @@
         <v>4</v>
       </c>
       <c r="L89" s="1">
-        <f>IF(B89=B88,L88,L88+1)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -4774,7 +4783,7 @@
         <v>271</v>
       </c>
       <c r="B90" s="1" t="str">
-        <f>E90</f>
+        <f t="shared" si="4"/>
         <v>M&amp;B</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -4790,7 +4799,7 @@
         <v>13</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>193</v>
@@ -4802,7 +4811,7 @@
         <v>4</v>
       </c>
       <c r="L90" s="1">
-        <f>IF(B90=B89,L89,L89+1)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -4811,7 +4820,7 @@
         <v>271</v>
       </c>
       <c r="B91" s="1" t="str">
-        <f>E91</f>
+        <f t="shared" si="4"/>
         <v>M&amp;B</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -4827,7 +4836,7 @@
         <v>13</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>193</v>
@@ -4839,7 +4848,7 @@
         <v>4</v>
       </c>
       <c r="L91" s="1">
-        <f>IF(B91=B90,L90,L90+1)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -4848,7 +4857,7 @@
         <v>271</v>
       </c>
       <c r="B92" s="1" t="str">
-        <f>E92</f>
+        <f t="shared" si="4"/>
         <v>M&amp;B</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -4864,7 +4873,7 @@
         <v>13</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>193</v>
@@ -4876,7 +4885,7 @@
         <v>4</v>
       </c>
       <c r="L92" s="1">
-        <f>IF(B92=B91,L91,L91+1)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -4885,7 +4894,7 @@
         <v>271</v>
       </c>
       <c r="B93" s="1" t="str">
-        <f>E93</f>
+        <f t="shared" si="4"/>
         <v>M&amp;B</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -4901,7 +4910,7 @@
         <v>13</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>193</v>
@@ -4913,7 +4922,7 @@
         <v>4</v>
       </c>
       <c r="L93" s="1">
-        <f>IF(B93=B92,L92,L92+1)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -4922,7 +4931,7 @@
         <v>271</v>
       </c>
       <c r="B94" s="1" t="str">
-        <f>E94</f>
+        <f t="shared" si="4"/>
         <v>M&amp;B</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -4935,22 +4944,22 @@
         <v>12</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L94" s="1">
-        <f>IF(B94=B93,L93,L93+1)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -4959,7 +4968,7 @@
         <v>271</v>
       </c>
       <c r="B95" s="1" t="str">
-        <f>E95</f>
+        <f t="shared" si="4"/>
         <v>M&amp;B</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -4972,22 +4981,22 @@
         <v>12</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L95" s="1">
-        <f>IF(B95=B94,L94,L94+1)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -4996,7 +5005,7 @@
         <v>271</v>
       </c>
       <c r="B96" s="1" t="str">
-        <f>E96</f>
+        <f t="shared" si="4"/>
         <v>M&amp;B</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -5009,16 +5018,22 @@
         <v>12</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G96" t="s">
-        <v>239</v>
+        <v>17</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>257</v>
+        <v>4</v>
       </c>
       <c r="L96" s="1">
-        <f>IF(B96=B95,L95,L95+1)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -5027,35 +5042,29 @@
         <v>271</v>
       </c>
       <c r="B97" s="1" t="str">
-        <f>E97</f>
+        <f t="shared" si="4"/>
         <v>M&amp;B</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
+      </c>
+      <c r="G97" t="s">
+        <v>239</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="L97" s="1">
-        <f>IF(B97=B96,L96,L96+1)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -5064,7 +5073,7 @@
         <v>271</v>
       </c>
       <c r="B98" s="1" t="str">
-        <f>E98</f>
+        <f t="shared" si="4"/>
         <v>M&amp;B</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -5079,14 +5088,20 @@
       <c r="F98" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G98" t="s">
-        <v>249</v>
+      <c r="G98" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>257</v>
+        <v>4</v>
       </c>
       <c r="L98" s="1">
-        <f>IF(B98=B97,L97,L97+1)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -5095,7 +5110,7 @@
         <v>271</v>
       </c>
       <c r="B99" s="1" t="str">
-        <f>E99</f>
+        <f t="shared" si="4"/>
         <v>M&amp;B</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -5110,20 +5125,14 @@
       <c r="F99" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G99" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>211</v>
+      <c r="G99" t="s">
+        <v>249</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="L99" s="1">
-        <f>IF(B99=B98,L98,L98+1)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -5132,14 +5141,14 @@
         <v>271</v>
       </c>
       <c r="B100" s="1" t="str">
-        <f>E100</f>
+        <f t="shared" si="4"/>
         <v>M&amp;B</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>324</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>12</v>
@@ -5148,7 +5157,7 @@
         <v>13</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>193</v>
@@ -5160,7 +5169,7 @@
         <v>4</v>
       </c>
       <c r="L100" s="1">
-        <f>IF(B100=B99,L99,L99+1)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -5169,7 +5178,7 @@
         <v>271</v>
       </c>
       <c r="B101" s="1" t="str">
-        <f>E101</f>
+        <f t="shared" si="4"/>
         <v>M&amp;B</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -5185,7 +5194,7 @@
         <v>13</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>193</v>
@@ -5197,7 +5206,7 @@
         <v>4</v>
       </c>
       <c r="L101" s="1">
-        <f>IF(B101=B100,L100,L100+1)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -5206,7 +5215,7 @@
         <v>271</v>
       </c>
       <c r="B102" s="1" t="str">
-        <f>E102</f>
+        <f t="shared" si="4"/>
         <v>M&amp;B</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -5222,7 +5231,7 @@
         <v>13</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>193</v>
@@ -5234,7 +5243,7 @@
         <v>4</v>
       </c>
       <c r="L102" s="1">
-        <f>IF(B102=B101,L101,L101+1)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -5243,7 +5252,7 @@
         <v>271</v>
       </c>
       <c r="B103" s="1" t="str">
-        <f>E103</f>
+        <f t="shared" si="4"/>
         <v>M&amp;B</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -5259,7 +5268,7 @@
         <v>13</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>193</v>
@@ -5271,7 +5280,7 @@
         <v>4</v>
       </c>
       <c r="L103" s="1">
-        <f>IF(B103=B102,L102,L102+1)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -5280,36 +5289,36 @@
         <v>271</v>
       </c>
       <c r="B104" s="1" t="str">
-        <f>E104</f>
-        <v>Membership</v>
+        <f t="shared" si="4"/>
+        <v>M&amp;B</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K104" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L104" s="1">
-        <f>IF(B104=B103,L103,L103+1)</f>
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -5317,7 +5326,7 @@
         <v>271</v>
       </c>
       <c r="B105" s="1" t="str">
-        <f>E105</f>
+        <f t="shared" si="4"/>
         <v>Membership</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -5333,7 +5342,7 @@
         <v>3</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>193</v>
@@ -5345,7 +5354,7 @@
         <v>4</v>
       </c>
       <c r="L105" s="1">
-        <f>IF(B105=B104,L104,L104+1)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
     </row>
@@ -5354,7 +5363,7 @@
         <v>271</v>
       </c>
       <c r="B106" s="1" t="str">
-        <f>E106</f>
+        <f t="shared" si="4"/>
         <v>Membership</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -5370,7 +5379,7 @@
         <v>3</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>193</v>
@@ -5382,7 +5391,7 @@
         <v>4</v>
       </c>
       <c r="L106" s="1">
-        <f>IF(B106=B105,L105,L105+1)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
     </row>
@@ -5391,7 +5400,7 @@
         <v>271</v>
       </c>
       <c r="B107" s="1" t="str">
-        <f>E107</f>
+        <f t="shared" si="4"/>
         <v>Membership</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -5407,7 +5416,7 @@
         <v>3</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>193</v>
@@ -5419,7 +5428,7 @@
         <v>4</v>
       </c>
       <c r="L107" s="1">
-        <f>IF(B107=B106,L106,L106+1)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
     </row>
@@ -5428,23 +5437,23 @@
         <v>271</v>
       </c>
       <c r="B108" s="1" t="str">
-        <f>E108</f>
-        <v>Office</v>
+        <f t="shared" si="4"/>
+        <v>Membership</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>193</v>
@@ -5456,8 +5465,8 @@
         <v>4</v>
       </c>
       <c r="L108" s="1">
-        <f>IF(B108=B107,L107,L107+1)</f>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -5465,7 +5474,7 @@
         <v>271</v>
       </c>
       <c r="B109" s="1" t="str">
-        <f>E109</f>
+        <f t="shared" si="4"/>
         <v>Office</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -5481,22 +5490,19 @@
         <v>3</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K109" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L109" s="1">
-        <f>IF(B109=B108,L108,L108+1)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
@@ -5505,7 +5511,7 @@
         <v>271</v>
       </c>
       <c r="B110" s="1" t="str">
-        <f>E110</f>
+        <f t="shared" si="4"/>
         <v>Office</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -5521,10 +5527,13 @@
         <v>3</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>211</v>
@@ -5533,7 +5542,7 @@
         <v>4</v>
       </c>
       <c r="L110" s="1">
-        <f>IF(B110=B109,L109,L109+1)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
@@ -5542,7 +5551,7 @@
         <v>271</v>
       </c>
       <c r="B111" s="1" t="str">
-        <f>E111</f>
+        <f t="shared" si="4"/>
         <v>Office</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -5558,7 +5567,7 @@
         <v>3</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>193</v>
@@ -5570,7 +5579,7 @@
         <v>4</v>
       </c>
       <c r="L111" s="1">
-        <f>IF(B111=B110,L110,L110+1)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
@@ -5579,7 +5588,7 @@
         <v>271</v>
       </c>
       <c r="B112" s="1" t="str">
-        <f>E112</f>
+        <f t="shared" si="4"/>
         <v>Office</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -5595,7 +5604,7 @@
         <v>3</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>193</v>
@@ -5607,7 +5616,7 @@
         <v>4</v>
       </c>
       <c r="L112" s="1">
-        <f>IF(B112=B111,L111,L111+1)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
@@ -5616,7 +5625,7 @@
         <v>271</v>
       </c>
       <c r="B113" s="1" t="str">
-        <f>E113</f>
+        <f t="shared" si="4"/>
         <v>Office</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -5632,7 +5641,7 @@
         <v>3</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>193</v>
@@ -5644,7 +5653,7 @@
         <v>4</v>
       </c>
       <c r="L113" s="1">
-        <f>IF(B113=B112,L112,L112+1)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
@@ -5653,7 +5662,7 @@
         <v>271</v>
       </c>
       <c r="B114" s="1" t="str">
-        <f>E114</f>
+        <f t="shared" si="4"/>
         <v>Office</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -5669,7 +5678,7 @@
         <v>3</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>193</v>
@@ -5681,7 +5690,7 @@
         <v>4</v>
       </c>
       <c r="L114" s="1">
-        <f>IF(B114=B113,L113,L113+1)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
@@ -5690,7 +5699,7 @@
         <v>271</v>
       </c>
       <c r="B115" s="1" t="str">
-        <f>E115</f>
+        <f t="shared" si="4"/>
         <v>Office</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -5706,19 +5715,19 @@
         <v>3</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L115" s="1">
-        <f>IF(B115=B114,L114,L114+1)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
@@ -5727,7 +5736,7 @@
         <v>271</v>
       </c>
       <c r="B116" s="1" t="str">
-        <f>E116</f>
+        <f t="shared" si="4"/>
         <v>Office</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -5743,7 +5752,7 @@
         <v>3</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>193</v>
@@ -5755,7 +5764,7 @@
         <v>4</v>
       </c>
       <c r="L116" s="1">
-        <f>IF(B116=B115,L115,L115+1)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
@@ -5764,7 +5773,7 @@
         <v>271</v>
       </c>
       <c r="B117" s="1" t="str">
-        <f>E117</f>
+        <f t="shared" si="4"/>
         <v>Office</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -5780,19 +5789,19 @@
         <v>3</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L117" s="1">
-        <f>IF(B117=B116,L116,L116+1)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
@@ -5801,7 +5810,7 @@
         <v>271</v>
       </c>
       <c r="B118" s="1" t="str">
-        <f>E118</f>
+        <f t="shared" si="4"/>
         <v>Office</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -5817,7 +5826,7 @@
         <v>3</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>193</v>
@@ -5829,7 +5838,7 @@
         <v>4</v>
       </c>
       <c r="L118" s="1">
-        <f>IF(B118=B117,L117,L117+1)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
@@ -5838,7 +5847,7 @@
         <v>271</v>
       </c>
       <c r="B119" s="1" t="str">
-        <f>E119</f>
+        <f t="shared" si="4"/>
         <v>Office</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -5854,7 +5863,7 @@
         <v>3</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>193</v>
@@ -5866,7 +5875,7 @@
         <v>4</v>
       </c>
       <c r="L119" s="1">
-        <f>IF(B119=B118,L118,L118+1)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
@@ -5875,7 +5884,7 @@
         <v>271</v>
       </c>
       <c r="B120" s="1" t="str">
-        <f>E120</f>
+        <f t="shared" si="4"/>
         <v>Office</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -5891,7 +5900,7 @@
         <v>3</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>193</v>
@@ -5903,7 +5912,7 @@
         <v>4</v>
       </c>
       <c r="L120" s="1">
-        <f>IF(B120=B119,L119,L119+1)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
@@ -5912,36 +5921,36 @@
         <v>271</v>
       </c>
       <c r="B121" s="1" t="str">
-        <f>E121</f>
-        <v>Personnel</v>
+        <f t="shared" si="4"/>
+        <v>Office</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K121" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L121" s="1">
-        <f>IF(B121=B120,L120,L120+1)</f>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -5949,7 +5958,7 @@
         <v>271</v>
       </c>
       <c r="B122" s="1" t="str">
-        <f>E122</f>
+        <f t="shared" si="4"/>
         <v>Personnel</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -5965,14 +5974,11 @@
         <v>3</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I122" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="J122" s="1" t="s">
         <v>212</v>
       </c>
@@ -5980,7 +5986,7 @@
         <v>4</v>
       </c>
       <c r="L122" s="1">
-        <f>IF(B122=B121,L121,L121+1)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
@@ -5989,7 +5995,7 @@
         <v>271</v>
       </c>
       <c r="B123" s="1" t="str">
-        <f>E123</f>
+        <f t="shared" si="4"/>
         <v>Personnel</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -6002,22 +6008,25 @@
         <v>40</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="I123" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="J123" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K123" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L123" s="1">
-        <f>IF(B123=B122,L122,L122+1)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
@@ -6026,14 +6035,14 @@
         <v>271</v>
       </c>
       <c r="B124" s="1" t="str">
-        <f>E124</f>
+        <f t="shared" si="4"/>
         <v>Personnel</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>322</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>40</v>
@@ -6042,19 +6051,19 @@
         <v>18</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L124" s="1">
-        <f>IF(B124=B123,L123,L123+1)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
@@ -6063,7 +6072,7 @@
         <v>271</v>
       </c>
       <c r="B125" s="1" t="str">
-        <f>E125</f>
+        <f t="shared" si="4"/>
         <v>Personnel</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -6076,17 +6085,14 @@
         <v>40</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I125" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="J125" s="1" t="s">
         <v>212</v>
       </c>
@@ -6094,7 +6100,7 @@
         <v>4</v>
       </c>
       <c r="L125" s="1">
-        <f>IF(B125=B124,L124,L124+1)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
@@ -6103,7 +6109,7 @@
         <v>271</v>
       </c>
       <c r="B126" s="1" t="str">
-        <f>E126</f>
+        <f t="shared" si="4"/>
         <v>Personnel</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -6119,11 +6125,14 @@
         <v>3</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="I126" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="J126" s="1" t="s">
         <v>212</v>
       </c>
@@ -6131,7 +6140,7 @@
         <v>4</v>
       </c>
       <c r="L126" s="1">
-        <f>IF(B126=B125,L125,L125+1)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
@@ -6140,7 +6149,7 @@
         <v>271</v>
       </c>
       <c r="B127" s="1" t="str">
-        <f>E127</f>
+        <f t="shared" si="4"/>
         <v>Personnel</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -6156,7 +6165,7 @@
         <v>3</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>190</v>
@@ -6168,7 +6177,7 @@
         <v>4</v>
       </c>
       <c r="L127" s="1">
-        <f>IF(B127=B126,L126,L126+1)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
@@ -6177,7 +6186,7 @@
         <v>271</v>
       </c>
       <c r="B128" s="1" t="str">
-        <f>E128</f>
+        <f t="shared" si="4"/>
         <v>Personnel</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -6193,7 +6202,7 @@
         <v>3</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>190</v>
@@ -6205,7 +6214,7 @@
         <v>4</v>
       </c>
       <c r="L128" s="1">
-        <f>IF(B128=B127,L127,L127+1)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
@@ -6214,7 +6223,7 @@
         <v>271</v>
       </c>
       <c r="B129" s="1" t="str">
-        <f>E129</f>
+        <f t="shared" si="4"/>
         <v>Personnel</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -6230,7 +6239,7 @@
         <v>3</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>190</v>
@@ -6242,7 +6251,7 @@
         <v>4</v>
       </c>
       <c r="L129" s="1">
-        <f>IF(B129=B128,L128,L128+1)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
@@ -6251,7 +6260,7 @@
         <v>271</v>
       </c>
       <c r="B130" s="1" t="str">
-        <f>E130</f>
+        <f t="shared" si="4"/>
         <v>Personnel</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -6267,14 +6276,11 @@
         <v>3</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I130" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="J130" s="1" t="s">
         <v>212</v>
       </c>
@@ -6282,7 +6288,7 @@
         <v>4</v>
       </c>
       <c r="L130" s="1">
-        <f>IF(B130=B129,L129,L129+1)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
@@ -6291,7 +6297,7 @@
         <v>271</v>
       </c>
       <c r="B131" s="1" t="str">
-        <f>E131</f>
+        <f t="shared" ref="B131:B194" si="6">E131</f>
         <v>Personnel</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -6307,11 +6313,14 @@
         <v>3</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="I131" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="J131" s="1" t="s">
         <v>212</v>
       </c>
@@ -6319,7 +6328,7 @@
         <v>4</v>
       </c>
       <c r="L131" s="1">
-        <f>IF(B131=B130,L130,L130+1)</f>
+        <f t="shared" ref="L131:L194" si="7">IF(B131=B130,L130,L130+1)</f>
         <v>20</v>
       </c>
     </row>
@@ -6328,14 +6337,14 @@
         <v>271</v>
       </c>
       <c r="B132" s="1" t="str">
-        <f>E132</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>40</v>
@@ -6344,19 +6353,19 @@
         <v>3</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K132" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L132" s="1">
-        <f>IF(B132=B131,L131,L131+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -6365,7 +6374,7 @@
         <v>271</v>
       </c>
       <c r="B133" s="1" t="str">
-        <f>E133</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -6381,14 +6390,11 @@
         <v>3</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I133" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="J133" s="1" t="s">
         <v>211</v>
       </c>
@@ -6396,7 +6402,7 @@
         <v>4</v>
       </c>
       <c r="L133" s="1">
-        <f>IF(B133=B132,L132,L132+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -6405,7 +6411,7 @@
         <v>271</v>
       </c>
       <c r="B134" s="1" t="str">
-        <f>E134</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -6421,11 +6427,14 @@
         <v>3</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>232</v>
+        <v>65</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="I134" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="J134" s="1" t="s">
         <v>211</v>
       </c>
@@ -6433,7 +6442,7 @@
         <v>4</v>
       </c>
       <c r="L134" s="1">
-        <f>IF(B134=B133,L133,L133+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -6442,7 +6451,7 @@
         <v>271</v>
       </c>
       <c r="B135" s="1" t="str">
-        <f>E135</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -6455,10 +6464,10 @@
         <v>40</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>66</v>
+        <v>232</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>51</v>
@@ -6470,7 +6479,7 @@
         <v>4</v>
       </c>
       <c r="L135" s="1">
-        <f>IF(B135=B134,L134,L134+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -6479,29 +6488,26 @@
         <v>271</v>
       </c>
       <c r="B136" s="1" t="str">
-        <f>E136</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>197</v>
+        <v>51</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>211</v>
@@ -6510,7 +6516,7 @@
         <v>4</v>
       </c>
       <c r="L136" s="1">
-        <f>IF(B136=B135,L135,L135+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -6519,7 +6525,7 @@
         <v>271</v>
       </c>
       <c r="B137" s="1" t="str">
-        <f>E137</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -6535,11 +6541,14 @@
         <v>13</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="I137" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="J137" s="1" t="s">
         <v>211</v>
       </c>
@@ -6547,7 +6556,7 @@
         <v>4</v>
       </c>
       <c r="L137" s="1">
-        <f>IF(B137=B136,L136,L136+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -6556,26 +6565,26 @@
         <v>271</v>
       </c>
       <c r="B138" s="1" t="str">
-        <f>E138</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>211</v>
@@ -6584,7 +6593,7 @@
         <v>4</v>
       </c>
       <c r="L138" s="1">
-        <f>IF(B138=B137,L137,L137+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -6593,7 +6602,7 @@
         <v>271</v>
       </c>
       <c r="B139" s="1" t="str">
-        <f>E139</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -6606,17 +6615,14 @@
         <v>40</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I139" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="J139" s="1" t="s">
         <v>211</v>
       </c>
@@ -6624,7 +6630,7 @@
         <v>4</v>
       </c>
       <c r="L139" s="1">
-        <f>IF(B139=B138,L138,L138+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -6633,7 +6639,7 @@
         <v>271</v>
       </c>
       <c r="B140" s="1" t="str">
-        <f>E140</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -6649,11 +6655,14 @@
         <v>3</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="I140" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="J140" s="1" t="s">
         <v>211</v>
       </c>
@@ -6661,7 +6670,7 @@
         <v>4</v>
       </c>
       <c r="L140" s="1">
-        <f>IF(B140=B139,L139,L139+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -6670,7 +6679,7 @@
         <v>271</v>
       </c>
       <c r="B141" s="1" t="str">
-        <f>E141</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -6686,7 +6695,7 @@
         <v>3</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>188</v>
@@ -6698,7 +6707,7 @@
         <v>4</v>
       </c>
       <c r="L141" s="1">
-        <f>IF(B141=B140,L140,L140+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -6707,7 +6716,7 @@
         <v>271</v>
       </c>
       <c r="B142" s="1" t="str">
-        <f>E142</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -6723,7 +6732,7 @@
         <v>3</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>188</v>
@@ -6735,7 +6744,7 @@
         <v>4</v>
       </c>
       <c r="L142" s="1">
-        <f>IF(B142=B141,L141,L141+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -6744,7 +6753,7 @@
         <v>271</v>
       </c>
       <c r="B143" s="1" t="str">
-        <f>E143</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -6760,7 +6769,7 @@
         <v>3</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>188</v>
@@ -6772,7 +6781,7 @@
         <v>4</v>
       </c>
       <c r="L143" s="1">
-        <f>IF(B143=B142,L142,L142+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -6781,7 +6790,7 @@
         <v>271</v>
       </c>
       <c r="B144" s="1" t="str">
-        <f>E144</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -6797,14 +6806,11 @@
         <v>3</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I144" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="J144" s="1" t="s">
         <v>211</v>
       </c>
@@ -6812,7 +6818,7 @@
         <v>4</v>
       </c>
       <c r="L144" s="1">
-        <f>IF(B144=B143,L143,L143+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -6821,7 +6827,7 @@
         <v>271</v>
       </c>
       <c r="B145" s="1" t="str">
-        <f>E145</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -6837,11 +6843,14 @@
         <v>3</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="I145" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="J145" s="1" t="s">
         <v>211</v>
       </c>
@@ -6849,7 +6858,7 @@
         <v>4</v>
       </c>
       <c r="L145" s="1">
-        <f>IF(B145=B144,L144,L144+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -6858,14 +6867,14 @@
         <v>271</v>
       </c>
       <c r="B146" s="1" t="str">
-        <f>E146</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>40</v>
@@ -6874,10 +6883,10 @@
         <v>3</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>211</v>
@@ -6886,7 +6895,7 @@
         <v>4</v>
       </c>
       <c r="L146" s="1">
-        <f>IF(B146=B145,L145,L145+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -6895,7 +6904,7 @@
         <v>271</v>
       </c>
       <c r="B147" s="1" t="str">
-        <f>E147</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C147" s="1" t="s">
@@ -6911,14 +6920,11 @@
         <v>3</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I147" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="J147" s="1" t="s">
         <v>211</v>
       </c>
@@ -6926,7 +6932,7 @@
         <v>4</v>
       </c>
       <c r="L147" s="1">
-        <f>IF(B147=B146,L146,L146+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -6935,7 +6941,7 @@
         <v>271</v>
       </c>
       <c r="B148" s="1" t="str">
-        <f>E148</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -6951,11 +6957,14 @@
         <v>3</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="I148" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="J148" s="1" t="s">
         <v>211</v>
       </c>
@@ -6963,7 +6972,7 @@
         <v>4</v>
       </c>
       <c r="L148" s="1">
-        <f>IF(B148=B147,L147,L147+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -6972,7 +6981,7 @@
         <v>271</v>
       </c>
       <c r="B149" s="1" t="str">
-        <f>E149</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -6988,7 +6997,7 @@
         <v>3</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>187</v>
@@ -7000,7 +7009,7 @@
         <v>4</v>
       </c>
       <c r="L149" s="1">
-        <f>IF(B149=B148,L148,L148+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -7009,7 +7018,7 @@
         <v>271</v>
       </c>
       <c r="B150" s="1" t="str">
-        <f>E150</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -7022,10 +7031,10 @@
         <v>40</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>187</v>
@@ -7037,7 +7046,7 @@
         <v>4</v>
       </c>
       <c r="L150" s="1">
-        <f>IF(B150=B149,L149,L149+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -7046,35 +7055,35 @@
         <v>271</v>
       </c>
       <c r="B151" s="1" t="str">
-        <f>E151</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K151" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L151" s="1">
-        <f>IF(B151=B150,L150,L150+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -7083,7 +7092,7 @@
         <v>271</v>
       </c>
       <c r="B152" s="1" t="str">
-        <f>E152</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C152" s="1" t="s">
@@ -7099,14 +7108,11 @@
         <v>3</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I152" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="J152" s="1" t="s">
         <v>212</v>
       </c>
@@ -7114,7 +7120,7 @@
         <v>4</v>
       </c>
       <c r="L152" s="1">
-        <f>IF(B152=B151,L151,L151+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -7123,7 +7129,7 @@
         <v>271</v>
       </c>
       <c r="B153" s="1" t="str">
-        <f>E153</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C153" s="1" t="s">
@@ -7139,11 +7145,14 @@
         <v>3</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>184</v>
       </c>
+      <c r="I153" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="J153" s="1" t="s">
         <v>212</v>
       </c>
@@ -7151,7 +7160,7 @@
         <v>4</v>
       </c>
       <c r="L153" s="1">
-        <f>IF(B153=B152,L152,L152+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -7160,7 +7169,7 @@
         <v>271</v>
       </c>
       <c r="B154" s="1" t="str">
-        <f>E154</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C154" s="1" t="s">
@@ -7176,7 +7185,7 @@
         <v>3</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>184</v>
@@ -7188,7 +7197,7 @@
         <v>4</v>
       </c>
       <c r="L154" s="1">
-        <f>IF(B154=B153,L153,L153+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -7197,7 +7206,7 @@
         <v>271</v>
       </c>
       <c r="B155" s="1" t="str">
-        <f>E155</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C155" s="1" t="s">
@@ -7210,10 +7219,10 @@
         <v>40</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>184</v>
@@ -7225,7 +7234,7 @@
         <v>4</v>
       </c>
       <c r="L155" s="1">
-        <f>IF(B155=B154,L154,L154+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -7234,38 +7243,35 @@
         <v>271</v>
       </c>
       <c r="B156" s="1" t="str">
-        <f>E156</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K156" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L156" s="1">
-        <f>IF(B156=B155,L155,L155+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -7274,7 +7280,7 @@
         <v>271</v>
       </c>
       <c r="B157" s="1" t="str">
-        <f>E157</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C157" s="1" t="s">
@@ -7290,11 +7296,14 @@
         <v>3</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="I157" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="J157" s="1" t="s">
         <v>211</v>
       </c>
@@ -7302,7 +7311,7 @@
         <v>4</v>
       </c>
       <c r="L157" s="1">
-        <f>IF(B157=B156,L156,L156+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -7311,7 +7320,7 @@
         <v>271</v>
       </c>
       <c r="B158" s="1" t="str">
-        <f>E158</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C158" s="1" t="s">
@@ -7327,7 +7336,7 @@
         <v>3</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>186</v>
@@ -7339,7 +7348,7 @@
         <v>4</v>
       </c>
       <c r="L158" s="1">
-        <f>IF(B158=B157,L157,L157+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -7348,7 +7357,7 @@
         <v>271</v>
       </c>
       <c r="B159" s="1" t="str">
-        <f>E159</f>
+        <f t="shared" si="6"/>
         <v>Personnel</v>
       </c>
       <c r="C159" s="1" t="s">
@@ -7361,10 +7370,10 @@
         <v>40</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>186</v>
@@ -7376,7 +7385,7 @@
         <v>4</v>
       </c>
       <c r="L159" s="1">
-        <f>IF(B159=B158,L158,L158+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
@@ -7385,26 +7394,26 @@
         <v>271</v>
       </c>
       <c r="B160" s="1" t="str">
-        <f>E160</f>
-        <v>Property - gas&amp;electric</v>
+        <f t="shared" si="6"/>
+        <v>Personnel</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>211</v>
@@ -7413,8 +7422,8 @@
         <v>4</v>
       </c>
       <c r="L160" s="1">
-        <f>IF(B160=B159,L159,L159+1)</f>
-        <v>21</v>
+        <f t="shared" si="7"/>
+        <v>20</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
@@ -7422,7 +7431,7 @@
         <v>271</v>
       </c>
       <c r="B161" s="1" t="str">
-        <f>E161</f>
+        <f t="shared" si="6"/>
         <v>Property - gas&amp;electric</v>
       </c>
       <c r="C161" s="1" t="s">
@@ -7438,19 +7447,19 @@
         <v>3</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K161" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L161" s="1">
-        <f>IF(B161=B160,L160,L160+1)</f>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
     </row>
@@ -7459,7 +7468,7 @@
         <v>271</v>
       </c>
       <c r="B162" s="1" t="str">
-        <f>E162</f>
+        <f t="shared" si="6"/>
         <v>Property - gas&amp;electric</v>
       </c>
       <c r="C162" s="1" t="s">
@@ -7475,19 +7484,19 @@
         <v>3</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K162" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L162" s="1">
-        <f>IF(B162=B161,L161,L161+1)</f>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
     </row>
@@ -7496,7 +7505,7 @@
         <v>271</v>
       </c>
       <c r="B163" s="1" t="str">
-        <f>E163</f>
+        <f t="shared" si="6"/>
         <v>Property - gas&amp;electric</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -7512,7 +7521,7 @@
         <v>3</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>193</v>
@@ -7524,7 +7533,7 @@
         <v>4</v>
       </c>
       <c r="L163" s="1">
-        <f>IF(B163=B162,L162,L162+1)</f>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
     </row>
@@ -7533,7 +7542,7 @@
         <v>271</v>
       </c>
       <c r="B164" s="1" t="str">
-        <f>E164</f>
+        <f t="shared" si="6"/>
         <v>Property - gas&amp;electric</v>
       </c>
       <c r="C164" s="1" t="s">
@@ -7549,7 +7558,7 @@
         <v>3</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>193</v>
@@ -7561,7 +7570,7 @@
         <v>4</v>
       </c>
       <c r="L164" s="1">
-        <f>IF(B164=B163,L163,L163+1)</f>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
     </row>
@@ -7570,7 +7579,7 @@
         <v>271</v>
       </c>
       <c r="B165" s="1" t="str">
-        <f>E165</f>
+        <f t="shared" si="6"/>
         <v>Property - gas&amp;electric</v>
       </c>
       <c r="C165" s="1" t="s">
@@ -7586,19 +7595,19 @@
         <v>3</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K165" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L165" s="1">
-        <f>IF(B165=B164,L164,L164+1)</f>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
     </row>
@@ -7607,7 +7616,7 @@
         <v>271</v>
       </c>
       <c r="B166" s="1" t="str">
-        <f>E166</f>
+        <f t="shared" si="6"/>
         <v>Property - gas&amp;electric</v>
       </c>
       <c r="C166" s="1" t="s">
@@ -7623,19 +7632,19 @@
         <v>3</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K166" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L166" s="1">
-        <f>IF(B166=B165,L165,L165+1)</f>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
     </row>
@@ -7644,7 +7653,7 @@
         <v>271</v>
       </c>
       <c r="B167" s="1" t="str">
-        <f>E167</f>
+        <f t="shared" si="6"/>
         <v>Property - gas&amp;electric</v>
       </c>
       <c r="C167" s="1" t="s">
@@ -7660,7 +7669,7 @@
         <v>3</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>193</v>
@@ -7672,7 +7681,7 @@
         <v>4</v>
       </c>
       <c r="L167" s="1">
-        <f>IF(B167=B166,L166,L166+1)</f>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
     </row>
@@ -7681,7 +7690,7 @@
         <v>271</v>
       </c>
       <c r="B168" s="1" t="str">
-        <f>E168</f>
+        <f t="shared" si="6"/>
         <v>Property - gas&amp;electric</v>
       </c>
       <c r="C168" s="1" t="s">
@@ -7697,19 +7706,19 @@
         <v>3</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K168" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L168" s="1">
-        <f>IF(B168=B167,L167,L167+1)</f>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
     </row>
@@ -7718,7 +7727,7 @@
         <v>271</v>
       </c>
       <c r="B169" s="1" t="str">
-        <f>E169</f>
+        <f t="shared" si="6"/>
         <v>Property - gas&amp;electric</v>
       </c>
       <c r="C169" s="1" t="s">
@@ -7734,19 +7743,19 @@
         <v>3</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K169" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L169" s="1">
-        <f>IF(B169=B168,L168,L168+1)</f>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
     </row>
@@ -7755,7 +7764,7 @@
         <v>271</v>
       </c>
       <c r="B170" s="1" t="str">
-        <f>E170</f>
+        <f t="shared" si="6"/>
         <v>Property - gas&amp;electric</v>
       </c>
       <c r="C170" s="1" t="s">
@@ -7771,7 +7780,7 @@
         <v>3</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>193</v>
@@ -7783,7 +7792,7 @@
         <v>4</v>
       </c>
       <c r="L170" s="1">
-        <f>IF(B170=B169,L169,L169+1)</f>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
     </row>
@@ -7792,8 +7801,8 @@
         <v>271</v>
       </c>
       <c r="B171" s="1" t="str">
-        <f>E171</f>
-        <v>Property - misc</v>
+        <f t="shared" si="6"/>
+        <v>Property - gas&amp;electric</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>326</v>
@@ -7802,26 +7811,26 @@
         <v>293</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K171" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L171" s="1">
-        <f>IF(B171=B170,L170,L170+1)</f>
-        <v>22</v>
+        <f t="shared" si="7"/>
+        <v>21</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
@@ -7829,7 +7838,7 @@
         <v>271</v>
       </c>
       <c r="B172" s="1" t="str">
-        <f>E172</f>
+        <f t="shared" si="6"/>
         <v>Property - misc</v>
       </c>
       <c r="C172" s="1" t="s">
@@ -7845,19 +7854,19 @@
         <v>3</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>118</v>
+        <v>223</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K172" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L172" s="1">
-        <f>IF(B172=B171,L171,L171+1)</f>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
     </row>
@@ -7866,7 +7875,7 @@
         <v>271</v>
       </c>
       <c r="B173" s="1" t="str">
-        <f>E173</f>
+        <f t="shared" si="6"/>
         <v>Property - misc</v>
       </c>
       <c r="C173" s="1" t="s">
@@ -7882,7 +7891,7 @@
         <v>3</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>193</v>
@@ -7894,7 +7903,7 @@
         <v>4</v>
       </c>
       <c r="L173" s="1">
-        <f>IF(B173=B172,L172,L172+1)</f>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
     </row>
@@ -7903,7 +7912,7 @@
         <v>271</v>
       </c>
       <c r="B174" s="1" t="str">
-        <f>E174</f>
+        <f t="shared" si="6"/>
         <v>Property - misc</v>
       </c>
       <c r="C174" s="1" t="s">
@@ -7919,19 +7928,19 @@
         <v>3</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K174" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L174" s="1">
-        <f>IF(B174=B173,L173,L173+1)</f>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
     </row>
@@ -7940,7 +7949,7 @@
         <v>271</v>
       </c>
       <c r="B175" s="1" t="str">
-        <f>E175</f>
+        <f t="shared" si="6"/>
         <v>Property - misc</v>
       </c>
       <c r="C175" s="1" t="s">
@@ -7956,7 +7965,7 @@
         <v>3</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>193</v>
@@ -7968,7 +7977,7 @@
         <v>4</v>
       </c>
       <c r="L175" s="1">
-        <f>IF(B175=B174,L174,L174+1)</f>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
     </row>
@@ -7977,7 +7986,7 @@
         <v>271</v>
       </c>
       <c r="B176" s="1" t="str">
-        <f>E176</f>
+        <f t="shared" si="6"/>
         <v>Property - misc</v>
       </c>
       <c r="C176" s="1" t="s">
@@ -7993,7 +8002,7 @@
         <v>3</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>193</v>
@@ -8005,7 +8014,7 @@
         <v>4</v>
       </c>
       <c r="L176" s="1">
-        <f>IF(B176=B175,L175,L175+1)</f>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
     </row>
@@ -8014,7 +8023,7 @@
         <v>271</v>
       </c>
       <c r="B177" s="1" t="str">
-        <f>E177</f>
+        <f t="shared" si="6"/>
         <v>Property - misc</v>
       </c>
       <c r="C177" s="1" t="s">
@@ -8030,19 +8039,19 @@
         <v>3</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K177" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L177" s="1">
-        <f>IF(B177=B176,L176,L176+1)</f>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
     </row>
@@ -8051,7 +8060,7 @@
         <v>271</v>
       </c>
       <c r="B178" s="1" t="str">
-        <f>E178</f>
+        <f t="shared" si="6"/>
         <v>Property - misc</v>
       </c>
       <c r="C178" s="1" t="s">
@@ -8067,19 +8076,19 @@
         <v>3</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K178" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L178" s="1">
-        <f>IF(B178=B177,L177,L177+1)</f>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
     </row>
@@ -8088,7 +8097,7 @@
         <v>271</v>
       </c>
       <c r="B179" s="1" t="str">
-        <f>E179</f>
+        <f t="shared" si="6"/>
         <v>Property - misc</v>
       </c>
       <c r="C179" s="1" t="s">
@@ -8104,19 +8113,19 @@
         <v>3</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K179" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L179" s="1">
-        <f>IF(B179=B178,L178,L178+1)</f>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
     </row>
@@ -8125,7 +8134,7 @@
         <v>271</v>
       </c>
       <c r="B180" s="1" t="str">
-        <f>E180</f>
+        <f t="shared" si="6"/>
         <v>Property - misc</v>
       </c>
       <c r="C180" s="1" t="s">
@@ -8141,7 +8150,7 @@
         <v>3</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>193</v>
@@ -8153,7 +8162,7 @@
         <v>4</v>
       </c>
       <c r="L180" s="1">
-        <f>IF(B180=B179,L179,L179+1)</f>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
     </row>
@@ -8162,7 +8171,7 @@
         <v>271</v>
       </c>
       <c r="B181" s="1" t="str">
-        <f>E181</f>
+        <f t="shared" si="6"/>
         <v>Property - misc</v>
       </c>
       <c r="C181" s="1" t="s">
@@ -8178,19 +8187,19 @@
         <v>3</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K181" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L181" s="1">
-        <f>IF(B181=B180,L180,L180+1)</f>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
     </row>
@@ -8199,7 +8208,7 @@
         <v>271</v>
       </c>
       <c r="B182" s="1" t="str">
-        <f>E182</f>
+        <f t="shared" si="6"/>
         <v>Property - misc</v>
       </c>
       <c r="C182" s="1" t="s">
@@ -8215,7 +8224,7 @@
         <v>3</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>193</v>
@@ -8227,7 +8236,7 @@
         <v>4</v>
       </c>
       <c r="L182" s="1">
-        <f>IF(B182=B181,L181,L181+1)</f>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
     </row>
@@ -8236,7 +8245,7 @@
         <v>271</v>
       </c>
       <c r="B183" s="1" t="str">
-        <f>E183</f>
+        <f t="shared" si="6"/>
         <v>Property - misc</v>
       </c>
       <c r="C183" s="1" t="s">
@@ -8252,19 +8261,19 @@
         <v>3</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>224</v>
+        <v>138</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K183" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L183" s="1">
-        <f>IF(B183=B182,L182,L182+1)</f>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
     </row>
@@ -8273,8 +8282,8 @@
         <v>271</v>
       </c>
       <c r="B184" s="1" t="str">
-        <f>E184</f>
-        <v>Property - repairs</v>
+        <f t="shared" si="6"/>
+        <v>Property - misc</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>326</v>
@@ -8283,13 +8292,13 @@
         <v>293</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>193</v>
@@ -8301,8 +8310,8 @@
         <v>4</v>
       </c>
       <c r="L184" s="1">
-        <f>IF(B184=B183,L183,L183+1)</f>
-        <v>23</v>
+        <f t="shared" si="7"/>
+        <v>22</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
@@ -8310,7 +8319,7 @@
         <v>271</v>
       </c>
       <c r="B185" s="1" t="str">
-        <f>E185</f>
+        <f t="shared" si="6"/>
         <v>Property - repairs</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -8326,7 +8335,7 @@
         <v>3</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>193</v>
@@ -8338,7 +8347,7 @@
         <v>4</v>
       </c>
       <c r="L185" s="1">
-        <f>IF(B185=B184,L184,L184+1)</f>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
     </row>
@@ -8347,7 +8356,7 @@
         <v>271</v>
       </c>
       <c r="B186" s="1" t="str">
-        <f>E186</f>
+        <f t="shared" si="6"/>
         <v>Property - repairs</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -8363,7 +8372,7 @@
         <v>3</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>193</v>
@@ -8375,7 +8384,7 @@
         <v>4</v>
       </c>
       <c r="L186" s="1">
-        <f>IF(B186=B185,L185,L185+1)</f>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
     </row>
@@ -8384,7 +8393,7 @@
         <v>271</v>
       </c>
       <c r="B187" s="1" t="str">
-        <f>E187</f>
+        <f t="shared" si="6"/>
         <v>Property - repairs</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -8400,7 +8409,7 @@
         <v>3</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>193</v>
@@ -8412,7 +8421,7 @@
         <v>4</v>
       </c>
       <c r="L187" s="1">
-        <f>IF(B187=B186,L186,L186+1)</f>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
     </row>
@@ -8421,30 +8430,36 @@
         <v>271</v>
       </c>
       <c r="B188" s="1" t="str">
-        <f>E188</f>
-        <v>Worship</v>
+        <f t="shared" si="6"/>
+        <v>Property - repairs</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="E188" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L188" s="1">
+        <f t="shared" si="7"/>
         <v>23</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G188" t="s">
-        <v>248</v>
-      </c>
-      <c r="K188" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="L188" s="1">
-        <f>IF(B188=B187,L187,L187+1)</f>
-        <v>24</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
@@ -8452,7 +8467,7 @@
         <v>271</v>
       </c>
       <c r="B189" s="1" t="str">
-        <f>E189</f>
+        <f t="shared" si="6"/>
         <v>Worship</v>
       </c>
       <c r="C189" s="1" t="s">
@@ -8467,20 +8482,14 @@
       <c r="F189" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G189" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H189" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J189" s="1" t="s">
-        <v>212</v>
+      <c r="G189" t="s">
+        <v>248</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="L189" s="1">
-        <f>IF(B189=B188,L188,L188+1)</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
     </row>
@@ -8489,7 +8498,7 @@
         <v>271</v>
       </c>
       <c r="B190" s="1" t="str">
-        <f>E190</f>
+        <f t="shared" si="6"/>
         <v>Worship</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -8505,7 +8514,7 @@
         <v>3</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>193</v>
@@ -8517,7 +8526,7 @@
         <v>4</v>
       </c>
       <c r="L190" s="1">
-        <f>IF(B190=B189,L189,L189+1)</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
     </row>
@@ -8526,7 +8535,7 @@
         <v>271</v>
       </c>
       <c r="B191" s="1" t="str">
-        <f>E191</f>
+        <f t="shared" si="6"/>
         <v>Worship</v>
       </c>
       <c r="C191" s="1" t="s">
@@ -8542,7 +8551,7 @@
         <v>3</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>193</v>
@@ -8554,7 +8563,7 @@
         <v>4</v>
       </c>
       <c r="L191" s="1">
-        <f>IF(B191=B190,L190,L190+1)</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
     </row>
@@ -8563,7 +8572,7 @@
         <v>271</v>
       </c>
       <c r="B192" s="1" t="str">
-        <f>E192</f>
+        <f t="shared" si="6"/>
         <v>Worship</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -8579,7 +8588,7 @@
         <v>3</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>193</v>
@@ -8591,7 +8600,7 @@
         <v>4</v>
       </c>
       <c r="L192" s="1">
-        <f>IF(B192=B191,L191,L191+1)</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
     </row>
@@ -8600,7 +8609,7 @@
         <v>271</v>
       </c>
       <c r="B193" s="1" t="str">
-        <f>E193</f>
+        <f t="shared" si="6"/>
         <v>Worship</v>
       </c>
       <c r="C193" s="1" t="s">
@@ -8616,7 +8625,7 @@
         <v>3</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>193</v>
@@ -8628,7 +8637,7 @@
         <v>4</v>
       </c>
       <c r="L193" s="1">
-        <f>IF(B193=B192,L192,L192+1)</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
     </row>
@@ -8637,7 +8646,7 @@
         <v>271</v>
       </c>
       <c r="B194" s="1" t="str">
-        <f>E194</f>
+        <f t="shared" si="6"/>
         <v>Worship</v>
       </c>
       <c r="C194" s="1" t="s">
@@ -8653,7 +8662,7 @@
         <v>3</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>193</v>
@@ -8665,7 +8674,7 @@
         <v>4</v>
       </c>
       <c r="L194" s="1">
-        <f>IF(B194=B193,L193,L193+1)</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
     </row>
@@ -8674,7 +8683,7 @@
         <v>271</v>
       </c>
       <c r="B195" s="1" t="str">
-        <f>E195</f>
+        <f t="shared" ref="B195:B236" si="8">E195</f>
         <v>Worship</v>
       </c>
       <c r="C195" s="1" t="s">
@@ -8690,7 +8699,7 @@
         <v>3</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>193</v>
@@ -8702,7 +8711,7 @@
         <v>4</v>
       </c>
       <c r="L195" s="1">
-        <f>IF(B195=B194,L194,L194+1)</f>
+        <f t="shared" ref="L195:L236" si="9">IF(B195=B194,L194,L194+1)</f>
         <v>24</v>
       </c>
     </row>
@@ -8711,7 +8720,7 @@
         <v>271</v>
       </c>
       <c r="B196" s="1" t="str">
-        <f>E196</f>
+        <f t="shared" si="8"/>
         <v>Worship</v>
       </c>
       <c r="C196" s="1" t="s">
@@ -8727,7 +8736,7 @@
         <v>3</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>31</v>
+        <v>209</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>193</v>
@@ -8739,7 +8748,7 @@
         <v>4</v>
       </c>
       <c r="L196" s="1">
-        <f>IF(B196=B195,L195,L195+1)</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
     </row>
@@ -8748,7 +8757,7 @@
         <v>271</v>
       </c>
       <c r="B197" s="1" t="str">
-        <f>E197</f>
+        <f t="shared" si="8"/>
         <v>Worship</v>
       </c>
       <c r="C197" s="1" t="s">
@@ -8764,7 +8773,7 @@
         <v>3</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>193</v>
@@ -8776,7 +8785,7 @@
         <v>4</v>
       </c>
       <c r="L197" s="1">
-        <f>IF(B197=B196,L196,L196+1)</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
     </row>
@@ -8785,7 +8794,7 @@
         <v>271</v>
       </c>
       <c r="B198" s="1" t="str">
-        <f>E198</f>
+        <f t="shared" si="8"/>
         <v>Worship</v>
       </c>
       <c r="C198" s="1" t="s">
@@ -8801,7 +8810,7 @@
         <v>3</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>193</v>
@@ -8813,7 +8822,7 @@
         <v>4</v>
       </c>
       <c r="L198" s="1">
-        <f>IF(B198=B197,L197,L197+1)</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
     </row>
@@ -8822,7 +8831,7 @@
         <v>271</v>
       </c>
       <c r="B199" s="1" t="str">
-        <f>E199</f>
+        <f t="shared" si="8"/>
         <v>Worship</v>
       </c>
       <c r="C199" s="1" t="s">
@@ -8838,7 +8847,7 @@
         <v>3</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>193</v>
@@ -8850,7 +8859,7 @@
         <v>4</v>
       </c>
       <c r="L199" s="1">
-        <f>IF(B199=B198,L198,L198+1)</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
     </row>
@@ -8859,7 +8868,7 @@
         <v>271</v>
       </c>
       <c r="B200" s="1" t="str">
-        <f>E200</f>
+        <f t="shared" si="8"/>
         <v>Worship</v>
       </c>
       <c r="C200" s="1" t="s">
@@ -8875,7 +8884,7 @@
         <v>3</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>193</v>
@@ -8887,7 +8896,7 @@
         <v>4</v>
       </c>
       <c r="L200" s="1">
-        <f>IF(B200=B199,L199,L199+1)</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
     </row>
@@ -8896,7 +8905,7 @@
         <v>271</v>
       </c>
       <c r="B201" s="1" t="str">
-        <f>E201</f>
+        <f t="shared" si="8"/>
         <v>Worship</v>
       </c>
       <c r="C201" s="1" t="s">
@@ -8912,7 +8921,7 @@
         <v>3</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>193</v>
@@ -8924,7 +8933,7 @@
         <v>4</v>
       </c>
       <c r="L201" s="1">
-        <f>IF(B201=B200,L200,L200+1)</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
     </row>
@@ -8933,7 +8942,7 @@
         <v>271</v>
       </c>
       <c r="B202" s="1" t="str">
-        <f>E202</f>
+        <f t="shared" si="8"/>
         <v>Worship</v>
       </c>
       <c r="C202" s="1" t="s">
@@ -8949,7 +8958,7 @@
         <v>3</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>193</v>
@@ -8961,7 +8970,7 @@
         <v>4</v>
       </c>
       <c r="L202" s="1">
-        <f>IF(B202=B201,L201,L201+1)</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
     </row>
@@ -8970,7 +8979,7 @@
         <v>271</v>
       </c>
       <c r="B203" s="1" t="str">
-        <f>E203</f>
+        <f t="shared" si="8"/>
         <v>Worship</v>
       </c>
       <c r="C203" s="1" t="s">
@@ -8986,19 +8995,19 @@
         <v>3</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K203" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L203" s="1">
-        <f>IF(B203=B202,L202,L202+1)</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
     </row>
@@ -9007,7 +9016,7 @@
         <v>271</v>
       </c>
       <c r="B204" s="1" t="str">
-        <f>E204</f>
+        <f t="shared" si="8"/>
         <v>Worship</v>
       </c>
       <c r="C204" s="1" t="s">
@@ -9023,7 +9032,7 @@
         <v>3</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>215</v>
+        <v>38</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>193</v>
@@ -9035,7 +9044,7 @@
         <v>4</v>
       </c>
       <c r="L204" s="1">
-        <f>IF(B204=B203,L203,L203+1)</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
     </row>
@@ -9044,7 +9053,7 @@
         <v>271</v>
       </c>
       <c r="B205" s="1" t="str">
-        <f>E205</f>
+        <f t="shared" si="8"/>
         <v>Worship</v>
       </c>
       <c r="C205" s="1" t="s">
@@ -9057,10 +9066,10 @@
         <v>23</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>193</v>
@@ -9069,10 +9078,10 @@
         <v>211</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>192</v>
+        <v>4</v>
       </c>
       <c r="L205" s="1">
-        <f>IF(B205=B204,L204,L204+1)</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
     </row>
@@ -9081,7 +9090,7 @@
         <v>271</v>
       </c>
       <c r="B206" s="1" t="str">
-        <f>E206</f>
+        <f t="shared" si="8"/>
         <v>Worship</v>
       </c>
       <c r="C206" s="1" t="s">
@@ -9094,10 +9103,10 @@
         <v>23</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>193</v>
@@ -9106,10 +9115,10 @@
         <v>211</v>
       </c>
       <c r="K206" s="1" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="L206" s="1">
-        <f>IF(B206=B205,L205,L205+1)</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
     </row>
@@ -9118,7 +9127,7 @@
         <v>271</v>
       </c>
       <c r="B207" s="1" t="str">
-        <f>E207</f>
+        <f t="shared" si="8"/>
         <v>Worship</v>
       </c>
       <c r="C207" s="1" t="s">
@@ -9131,10 +9140,10 @@
         <v>23</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>193</v>
@@ -9146,7 +9155,7 @@
         <v>4</v>
       </c>
       <c r="L207" s="1">
-        <f>IF(B207=B206,L206,L206+1)</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
     </row>
@@ -9155,7 +9164,7 @@
         <v>271</v>
       </c>
       <c r="B208" s="1" t="str">
-        <f>E208</f>
+        <f t="shared" si="8"/>
         <v>Worship</v>
       </c>
       <c r="C208" s="1" t="s">
@@ -9171,7 +9180,7 @@
         <v>18</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>193</v>
@@ -9183,7 +9192,7 @@
         <v>4</v>
       </c>
       <c r="L208" s="1">
-        <f>IF(B208=B207,L207,L207+1)</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
     </row>
@@ -9192,7 +9201,7 @@
         <v>271</v>
       </c>
       <c r="B209" s="1" t="str">
-        <f>E209</f>
+        <f t="shared" si="8"/>
         <v>Worship</v>
       </c>
       <c r="C209" s="1" t="s">
@@ -9205,22 +9214,22 @@
         <v>23</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K209" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L209" s="1">
-        <f>IF(B209=B208,L208,L208+1)</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
     </row>
@@ -9229,7 +9238,7 @@
         <v>271</v>
       </c>
       <c r="B210" s="1" t="str">
-        <f>E210</f>
+        <f t="shared" si="8"/>
         <v>Worship</v>
       </c>
       <c r="C210" s="1" t="s">
@@ -9245,7 +9254,7 @@
         <v>3</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>193</v>
@@ -9257,7 +9266,7 @@
         <v>4</v>
       </c>
       <c r="L210" s="1">
-        <f>IF(B210=B209,L209,L209+1)</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
     </row>
@@ -9266,7 +9275,7 @@
         <v>271</v>
       </c>
       <c r="B211" s="1" t="str">
-        <f>E211</f>
+        <f t="shared" si="8"/>
         <v>Worship</v>
       </c>
       <c r="C211" s="1" t="s">
@@ -9282,7 +9291,7 @@
         <v>3</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>193</v>
@@ -9294,7 +9303,7 @@
         <v>4</v>
       </c>
       <c r="L211" s="1">
-        <f>IF(B211=B210,L210,L210+1)</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
     </row>
@@ -9303,7 +9312,7 @@
         <v>271</v>
       </c>
       <c r="B212" s="1" t="str">
-        <f>E212</f>
+        <f t="shared" si="8"/>
         <v>Worship</v>
       </c>
       <c r="C212" s="1" t="s">
@@ -9316,10 +9325,10 @@
         <v>23</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>193</v>
@@ -9331,7 +9340,7 @@
         <v>4</v>
       </c>
       <c r="L212" s="1">
-        <f>IF(B212=B211,L211,L211+1)</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
     </row>
@@ -9340,30 +9349,36 @@
         <v>271</v>
       </c>
       <c r="B213" s="1" t="str">
-        <f>E213</f>
-        <v>Xbudget</v>
+        <f t="shared" si="8"/>
+        <v>Worship</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>259</v>
+        <v>23</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G213" t="s">
-        <v>250</v>
+        <v>24</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J213" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>257</v>
+        <v>4</v>
       </c>
       <c r="L213" s="1">
-        <f>IF(B213=B212,L212,L212+1)</f>
-        <v>25</v>
+        <f t="shared" si="9"/>
+        <v>24</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
@@ -9371,7 +9386,7 @@
         <v>271</v>
       </c>
       <c r="B214" s="1" t="str">
-        <f>E214</f>
+        <f t="shared" si="8"/>
         <v>Xbudget</v>
       </c>
       <c r="C214" s="1" t="s">
@@ -9387,13 +9402,13 @@
         <v>259</v>
       </c>
       <c r="G214" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="K214" s="1" t="s">
         <v>257</v>
       </c>
       <c r="L214" s="1">
-        <f>IF(B214=B213,L213,L213+1)</f>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
     </row>
@@ -9402,7 +9417,7 @@
         <v>271</v>
       </c>
       <c r="B215" s="1" t="str">
-        <f>E215</f>
+        <f t="shared" si="8"/>
         <v>Xbudget</v>
       </c>
       <c r="C215" s="1" t="s">
@@ -9418,13 +9433,13 @@
         <v>259</v>
       </c>
       <c r="G215" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="K215" s="1" t="s">
         <v>257</v>
       </c>
       <c r="L215" s="1">
-        <f>IF(B215=B214,L214,L214+1)</f>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
     </row>
@@ -9433,7 +9448,7 @@
         <v>271</v>
       </c>
       <c r="B216" s="1" t="str">
-        <f>E216</f>
+        <f t="shared" si="8"/>
         <v>Xbudget</v>
       </c>
       <c r="C216" s="1" t="s">
@@ -9449,13 +9464,13 @@
         <v>259</v>
       </c>
       <c r="G216" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K216" s="1" t="s">
         <v>257</v>
       </c>
       <c r="L216" s="1">
-        <f>IF(B216=B215,L215,L215+1)</f>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
     </row>
@@ -9464,7 +9479,7 @@
         <v>271</v>
       </c>
       <c r="B217" s="1" t="str">
-        <f>E217</f>
+        <f t="shared" si="8"/>
         <v>Xbudget</v>
       </c>
       <c r="C217" s="1" t="s">
@@ -9480,13 +9495,13 @@
         <v>259</v>
       </c>
       <c r="G217" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K217" s="1" t="s">
         <v>257</v>
       </c>
       <c r="L217" s="1">
-        <f>IF(B217=B216,L216,L216+1)</f>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
     </row>
@@ -9495,7 +9510,7 @@
         <v>271</v>
       </c>
       <c r="B218" s="1" t="str">
-        <f>E218</f>
+        <f t="shared" si="8"/>
         <v>Xbudget</v>
       </c>
       <c r="C218" s="1" t="s">
@@ -9511,13 +9526,13 @@
         <v>259</v>
       </c>
       <c r="G218" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K218" s="1" t="s">
         <v>257</v>
       </c>
       <c r="L218" s="1">
-        <f>IF(B218=B217,L217,L217+1)</f>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
     </row>
@@ -9526,7 +9541,7 @@
         <v>271</v>
       </c>
       <c r="B219" s="1" t="str">
-        <f>E219</f>
+        <f t="shared" si="8"/>
         <v>Xbudget</v>
       </c>
       <c r="C219" s="1" t="s">
@@ -9542,13 +9557,13 @@
         <v>259</v>
       </c>
       <c r="G219" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K219" s="1" t="s">
         <v>257</v>
       </c>
       <c r="L219" s="1">
-        <f>IF(B219=B218,L218,L218+1)</f>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
     </row>
@@ -9557,7 +9572,7 @@
         <v>271</v>
       </c>
       <c r="B220" s="1" t="str">
-        <f>E220</f>
+        <f t="shared" si="8"/>
         <v>Xbudget</v>
       </c>
       <c r="C220" s="1" t="s">
@@ -9573,13 +9588,13 @@
         <v>259</v>
       </c>
       <c r="G220" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K220" s="1" t="s">
         <v>257</v>
       </c>
       <c r="L220" s="1">
-        <f>IF(B220=B219,L219,L219+1)</f>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
     </row>
@@ -9588,36 +9603,30 @@
         <v>271</v>
       </c>
       <c r="B221" s="1" t="str">
-        <f>E221</f>
-        <v>Youth Ed</v>
+        <f t="shared" si="8"/>
+        <v>Xbudget</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>51</v>
+        <v>259</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G221" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H221" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J221" s="1" t="s">
-        <v>211</v>
+        <v>259</v>
+      </c>
+      <c r="G221" t="s">
+        <v>256</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="L221" s="1">
-        <f>IF(B221=B220,L220,L220+1)</f>
-        <v>26</v>
+        <f t="shared" si="9"/>
+        <v>25</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
@@ -9625,7 +9634,7 @@
         <v>271</v>
       </c>
       <c r="B222" s="1" t="str">
-        <f>E222</f>
+        <f t="shared" si="8"/>
         <v>Youth Ed</v>
       </c>
       <c r="C222" s="1" t="s">
@@ -9641,19 +9650,19 @@
         <v>3</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>52</v>
+        <v>235</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K222" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L222" s="1">
-        <f>IF(B222=B221,L221,L221+1)</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
     </row>
@@ -9662,7 +9671,7 @@
         <v>271</v>
       </c>
       <c r="B223" s="1" t="str">
-        <f>E223</f>
+        <f t="shared" si="8"/>
         <v>Youth Ed</v>
       </c>
       <c r="C223" s="1" t="s">
@@ -9678,7 +9687,7 @@
         <v>3</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>193</v>
@@ -9690,7 +9699,7 @@
         <v>4</v>
       </c>
       <c r="L223" s="1">
-        <f>IF(B223=B222,L222,L222+1)</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
     </row>
@@ -9699,7 +9708,7 @@
         <v>271</v>
       </c>
       <c r="B224" s="1" t="str">
-        <f>E224</f>
+        <f t="shared" si="8"/>
         <v>Youth Ed</v>
       </c>
       <c r="C224" s="1" t="s">
@@ -9715,19 +9724,19 @@
         <v>3</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>236</v>
+        <v>53</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K224" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L224" s="1">
-        <f>IF(B224=B223,L223,L223+1)</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
     </row>
@@ -9736,7 +9745,7 @@
         <v>271</v>
       </c>
       <c r="B225" s="1" t="str">
-        <f>E225</f>
+        <f t="shared" si="8"/>
         <v>Youth Ed</v>
       </c>
       <c r="C225" s="1" t="s">
@@ -9752,19 +9761,19 @@
         <v>3</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>54</v>
+        <v>236</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K225" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L225" s="1">
-        <f>IF(B225=B224,L224,L224+1)</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
     </row>
@@ -9773,7 +9782,7 @@
         <v>271</v>
       </c>
       <c r="B226" s="1" t="str">
-        <f>E226</f>
+        <f t="shared" si="8"/>
         <v>Youth Ed</v>
       </c>
       <c r="C226" s="1" t="s">
@@ -9786,22 +9795,22 @@
         <v>51</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K226" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L226" s="1">
-        <f>IF(B226=B225,L225,L225+1)</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
     </row>
@@ -9810,7 +9819,7 @@
         <v>271</v>
       </c>
       <c r="B227" s="1" t="str">
-        <f>E227</f>
+        <f t="shared" si="8"/>
         <v>Youth Ed</v>
       </c>
       <c r="C227" s="1" t="s">
@@ -9823,22 +9832,22 @@
         <v>51</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>55</v>
+        <v>231</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K227" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L227" s="1">
-        <f>IF(B227=B226,L226,L226+1)</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
     </row>
@@ -9847,7 +9856,7 @@
         <v>271</v>
       </c>
       <c r="B228" s="1" t="str">
-        <f>E228</f>
+        <f t="shared" si="8"/>
         <v>Youth Ed</v>
       </c>
       <c r="C228" s="1" t="s">
@@ -9863,7 +9872,7 @@
         <v>3</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H228" s="1" t="s">
         <v>193</v>
@@ -9875,7 +9884,7 @@
         <v>4</v>
       </c>
       <c r="L228" s="1">
-        <f>IF(B228=B227,L227,L227+1)</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
     </row>
@@ -9884,7 +9893,7 @@
         <v>271</v>
       </c>
       <c r="B229" s="1" t="str">
-        <f>E229</f>
+        <f t="shared" si="8"/>
         <v>Youth Ed</v>
       </c>
       <c r="C229" s="1" t="s">
@@ -9900,7 +9909,7 @@
         <v>3</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>193</v>
@@ -9912,7 +9921,7 @@
         <v>4</v>
       </c>
       <c r="L229" s="1">
-        <f>IF(B229=B228,L228,L228+1)</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
     </row>
@@ -9921,7 +9930,7 @@
         <v>271</v>
       </c>
       <c r="B230" s="1" t="str">
-        <f>E230</f>
+        <f t="shared" si="8"/>
         <v>Youth Ed</v>
       </c>
       <c r="C230" s="1" t="s">
@@ -9937,7 +9946,7 @@
         <v>3</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>193</v>
@@ -9949,7 +9958,7 @@
         <v>4</v>
       </c>
       <c r="L230" s="1">
-        <f>IF(B230=B229,L229,L229+1)</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
     </row>
@@ -9958,7 +9967,7 @@
         <v>271</v>
       </c>
       <c r="B231" s="1" t="str">
-        <f>E231</f>
+        <f t="shared" si="8"/>
         <v>Youth Ed</v>
       </c>
       <c r="C231" s="1" t="s">
@@ -9974,7 +9983,7 @@
         <v>3</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>193</v>
@@ -9986,7 +9995,7 @@
         <v>4</v>
       </c>
       <c r="L231" s="1">
-        <f>IF(B231=B230,L230,L230+1)</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
     </row>
@@ -9995,7 +10004,7 @@
         <v>271</v>
       </c>
       <c r="B232" s="1" t="str">
-        <f>E232</f>
+        <f t="shared" si="8"/>
         <v>Youth Ed</v>
       </c>
       <c r="C232" s="1" t="s">
@@ -10011,7 +10020,7 @@
         <v>3</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>193</v>
@@ -10023,7 +10032,7 @@
         <v>4</v>
       </c>
       <c r="L232" s="1">
-        <f>IF(B232=B231,L231,L231+1)</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
     </row>
@@ -10032,7 +10041,7 @@
         <v>271</v>
       </c>
       <c r="B233" s="1" t="str">
-        <f>E233</f>
+        <f t="shared" si="8"/>
         <v>Youth Ed</v>
       </c>
       <c r="C233" s="1" t="s">
@@ -10048,7 +10057,7 @@
         <v>3</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H233" s="1" t="s">
         <v>193</v>
@@ -10060,7 +10069,7 @@
         <v>4</v>
       </c>
       <c r="L233" s="1">
-        <f>IF(B233=B232,L232,L232+1)</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
     </row>
@@ -10069,7 +10078,7 @@
         <v>271</v>
       </c>
       <c r="B234" s="1" t="str">
-        <f>E234</f>
+        <f t="shared" si="8"/>
         <v>Youth Ed</v>
       </c>
       <c r="C234" s="1" t="s">
@@ -10085,7 +10094,7 @@
         <v>3</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>193</v>
@@ -10097,7 +10106,7 @@
         <v>4</v>
       </c>
       <c r="L234" s="1">
-        <f>IF(B234=B233,L233,L233+1)</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
     </row>
@@ -10106,7 +10115,7 @@
         <v>271</v>
       </c>
       <c r="B235" s="1" t="str">
-        <f>E235</f>
+        <f t="shared" si="8"/>
         <v>Youth Ed</v>
       </c>
       <c r="C235" s="1" t="s">
@@ -10122,7 +10131,7 @@
         <v>3</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>193</v>
@@ -10134,17 +10143,54 @@
         <v>4</v>
       </c>
       <c r="L235" s="1">
-        <f>IF(B235=B234,L234,L234+1)</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
     </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B236" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Youth Ed</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J236" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K236" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L236" s="1">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L235" xr:uid="{9210D030-08A6-47C5-BE1B-A368CD904E6C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L235">
-      <sortCondition ref="A1:A235"/>
+  <autoFilter ref="A1:L236" xr:uid="{9210D030-08A6-47C5-BE1B-A368CD904E6C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L236">
+      <sortCondition ref="A1:A236"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A2:L235">
+  <conditionalFormatting sqref="A2:L236">
     <cfRule type="expression" dxfId="0" priority="5">
       <formula>MOD($L2,2)=0</formula>
     </cfRule>

--- a/input_files/map.xlsx
+++ b/input_files/map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\01_Dave\Programs\GitHub_home\budget\input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE563412-4E94-4432-98B0-8055069037A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD4015D-1579-4B28-8D01-82BD971C29FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,8 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$236</definedName>
-    <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable21" hidden="1">'[1]budget 11-01-23'!$A$1:$M$198</definedName>
-    <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable31" hidden="1">Table1</definedName>
+    <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable2" hidden="1">'[1]budget 11-01-23'!$A$1:$M$198</definedName>
+    <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable3" hidden="1">Table1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -120,7 +120,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table2" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_budget_2024.xlsxTable21"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_budget_2024.xlsxTable2"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -129,7 +129,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table3">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_budget_2024.xlsxTable31"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_budget_2024.xlsxTable3"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1502,9 +1502,9 @@
   <dimension ref="A1:L236"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L17" sqref="L17"/>
-      <selection pane="bottomLeft" sqref="A1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1566,8 +1566,8 @@
         <v>270</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f t="shared" ref="B2" si="0">E2</f>
-        <v>Contributions</v>
+        <f>C2</f>
+        <v>01 Classis Assessments</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>276</v>
@@ -1591,7 +1591,7 @@
         <v>257</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:L66" si="1">IF(B2=B1,L1,L1+1)</f>
+        <f t="shared" ref="L2:L66" si="0">IF(B2=B1,L1,L1+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1600,8 +1600,8 @@
         <v>270</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f t="shared" ref="B3:B66" si="2">E3</f>
-        <v>Contributions</v>
+        <f t="shared" ref="B3:B66" si="1">C3</f>
+        <v>01 Classis Assessments</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>276</v>
@@ -1628,7 +1628,7 @@
         <v>4</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1637,8 +1637,8 @@
         <v>270</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Contributions</v>
+        <f t="shared" si="1"/>
+        <v>02 Contributions</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>277</v>
@@ -1659,8 +1659,8 @@
         <v>257</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1668,8 +1668,8 @@
         <v>270</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Contributions</v>
+        <f t="shared" si="1"/>
+        <v>02 Contributions</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>277</v>
@@ -1696,8 +1696,8 @@
         <v>4</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1705,8 +1705,8 @@
         <v>270</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Contributions</v>
+        <f t="shared" si="1"/>
+        <v>02 Contributions</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>277</v>
@@ -1733,8 +1733,8 @@
         <v>4</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1742,8 +1742,8 @@
         <v>270</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Contributions</v>
+        <f t="shared" si="1"/>
+        <v>02 Contributions</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>277</v>
@@ -1770,8 +1770,8 @@
         <v>303</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1779,8 +1779,8 @@
         <v>270</v>
       </c>
       <c r="B8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Contributions</v>
+        <f t="shared" si="1"/>
+        <v>02 Contributions</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>277</v>
@@ -1807,8 +1807,8 @@
         <v>303</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1816,8 +1816,8 @@
         <v>270</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f t="shared" ref="B9" si="3">E9</f>
-        <v>Contributions</v>
+        <f t="shared" si="1"/>
+        <v>02 Contributions</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>277</v>
@@ -1844,8 +1844,8 @@
         <v>303</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1853,8 +1853,8 @@
         <v>270</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Contributions</v>
+        <f t="shared" si="1"/>
+        <v>02 Contributions</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>277</v>
@@ -1881,8 +1881,8 @@
         <v>4</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1890,8 +1890,8 @@
         <v>270</v>
       </c>
       <c r="B11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Contributions</v>
+        <f t="shared" si="1"/>
+        <v>02 Contributions</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>277</v>
@@ -1918,8 +1918,8 @@
         <v>4</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1927,8 +1927,8 @@
         <v>270</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Contributions</v>
+        <f t="shared" si="1"/>
+        <v>02 Contributions</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>277</v>
@@ -1955,8 +1955,8 @@
         <v>4</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1964,8 +1964,8 @@
         <v>270</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Contributions</v>
+        <f t="shared" si="1"/>
+        <v>02 Contributions</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>277</v>
@@ -1992,8 +1992,8 @@
         <v>4</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2001,8 +2001,8 @@
         <v>270</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Contributions</v>
+        <f t="shared" si="1"/>
+        <v>02 Contributions</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>277</v>
@@ -2026,8 +2026,8 @@
         <v>211</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2035,8 +2035,8 @@
         <v>270</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Contributions - pledge</v>
+        <f t="shared" si="1"/>
+        <v>02 Contributions</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>277</v>
@@ -2063,7 +2063,7 @@
         <v>4</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2072,8 +2072,8 @@
         <v>270</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Contributions - pledge</v>
+        <f t="shared" si="1"/>
+        <v>02 Contributions</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>277</v>
@@ -2100,7 +2100,7 @@
         <v>4</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2109,8 +2109,8 @@
         <v>270</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Investment Income - 1. Endowment + Checking Account</v>
+        <f t="shared" si="1"/>
+        <v>03 Investment Income</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>278</v>
@@ -2137,7 +2137,7 @@
         <v>192</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -2146,8 +2146,8 @@
         <v>270</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Investment Income - 1. Endowment + Checking Account</v>
+        <f t="shared" si="1"/>
+        <v>03 Investment Income</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>278</v>
@@ -2174,7 +2174,7 @@
         <v>4</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -2183,8 +2183,8 @@
         <v>270</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Investment Income - 2. Schermerhorn and Birch Funds</v>
+        <f t="shared" si="1"/>
+        <v>03 Investment Income</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>278</v>
@@ -2211,8 +2211,8 @@
         <v>4</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -2220,8 +2220,8 @@
         <v>270</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Investment Income - 2. Schermerhorn and Birch Funds</v>
+        <f t="shared" si="1"/>
+        <v>03 Investment Income</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>278</v>
@@ -2248,8 +2248,8 @@
         <v>4</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -2257,8 +2257,8 @@
         <v>270</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Investment Income - 3. Covenant Fund</v>
+        <f t="shared" si="1"/>
+        <v>04 Covenant Income</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>279</v>
@@ -2285,8 +2285,8 @@
         <v>4</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -2294,8 +2294,8 @@
         <v>270</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Investment Income - 3. Covenant Fund</v>
+        <f t="shared" si="1"/>
+        <v>04 Covenant Income</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>279</v>
@@ -2322,8 +2322,8 @@
         <v>4</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -2331,8 +2331,8 @@
         <v>270</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Investment Income - 3. Covenant Fund</v>
+        <f t="shared" si="1"/>
+        <v>04 Covenant Income</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>279</v>
@@ -2359,8 +2359,8 @@
         <v>4</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -2368,8 +2368,8 @@
         <v>270</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Investment Income - 4. UP Mission</v>
+        <f t="shared" si="1"/>
+        <v>03 Investment Income</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>278</v>
@@ -2396,8 +2396,8 @@
         <v>4</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -2405,8 +2405,8 @@
         <v>270</v>
       </c>
       <c r="B25" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Investment Income - 4. UP Mission</v>
+        <f t="shared" si="1"/>
+        <v>03 Investment Income</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>278</v>
@@ -2433,8 +2433,8 @@
         <v>4</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -2442,8 +2442,8 @@
         <v>270</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Investment Income - 5. Tercentenary</v>
+        <f t="shared" si="1"/>
+        <v>03 Investment Income</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>278</v>
@@ -2470,8 +2470,8 @@
         <v>4</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -2479,8 +2479,8 @@
         <v>270</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Investment Income - Linear Adjustments</v>
+        <f t="shared" si="1"/>
+        <v>03 Investment Income</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>278</v>
@@ -2507,8 +2507,8 @@
         <v>192</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -2516,8 +2516,8 @@
         <v>270</v>
       </c>
       <c r="B28" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Investment Income - Linear Adjustments</v>
+        <f t="shared" si="1"/>
+        <v>03 Investment Income</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>278</v>
@@ -2544,8 +2544,8 @@
         <v>4</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -2553,8 +2553,8 @@
         <v>270</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Investment Income - Linear Adjustments</v>
+        <f t="shared" si="1"/>
+        <v>03 Investment Income</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>278</v>
@@ -2581,8 +2581,8 @@
         <v>4</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -2590,8 +2590,8 @@
         <v>270</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Investment Income - Linear Adjustments</v>
+        <f t="shared" si="1"/>
+        <v>03 Investment Income</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>278</v>
@@ -2618,8 +2618,8 @@
         <v>4</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -2627,8 +2627,8 @@
         <v>270</v>
       </c>
       <c r="B31" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Investment Income - Linear Adjustments</v>
+        <f t="shared" si="1"/>
+        <v>03 Investment Income</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>278</v>
@@ -2655,8 +2655,8 @@
         <v>4</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -2664,8 +2664,8 @@
         <v>270</v>
       </c>
       <c r="B32" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Investment Income - Linear Adjustments</v>
+        <f t="shared" si="1"/>
+        <v>04 Covenant Income</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>279</v>
@@ -2692,8 +2692,8 @@
         <v>4</v>
       </c>
       <c r="L32" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -2701,8 +2701,8 @@
         <v>270</v>
       </c>
       <c r="B33" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Investment Income - Linear Adjustments</v>
+        <f t="shared" si="1"/>
+        <v>04 Covenant Income</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>279</v>
@@ -2729,8 +2729,8 @@
         <v>4</v>
       </c>
       <c r="L33" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -2738,8 +2738,8 @@
         <v>270</v>
       </c>
       <c r="B34" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Investment Income - Linear Adjustments</v>
+        <f t="shared" si="1"/>
+        <v>04 Covenant Income</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>279</v>
@@ -2766,8 +2766,8 @@
         <v>4</v>
       </c>
       <c r="L34" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -2775,8 +2775,8 @@
         <v>270</v>
       </c>
       <c r="B35" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Other income</v>
+        <f t="shared" si="1"/>
+        <v>05 Other Income</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>280</v>
@@ -2803,8 +2803,8 @@
         <v>4</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -2812,8 +2812,8 @@
         <v>270</v>
       </c>
       <c r="B36" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Other income</v>
+        <f t="shared" si="1"/>
+        <v>05 Other Income</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>280</v>
@@ -2840,8 +2840,8 @@
         <v>4</v>
       </c>
       <c r="L36" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -2849,8 +2849,8 @@
         <v>270</v>
       </c>
       <c r="B37" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Other income</v>
+        <f t="shared" si="1"/>
+        <v>05 Other Income</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>280</v>
@@ -2877,8 +2877,8 @@
         <v>4</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -2886,8 +2886,8 @@
         <v>270</v>
       </c>
       <c r="B38" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Other income</v>
+        <f t="shared" si="1"/>
+        <v>05 Other Income</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>280</v>
@@ -2914,8 +2914,8 @@
         <v>4</v>
       </c>
       <c r="L38" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -2923,8 +2923,8 @@
         <v>270</v>
       </c>
       <c r="B39" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Other income</v>
+        <f t="shared" si="1"/>
+        <v>05 Other Income</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>280</v>
@@ -2951,8 +2951,8 @@
         <v>4</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -2960,8 +2960,8 @@
         <v>270</v>
       </c>
       <c r="B40" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Other income</v>
+        <f t="shared" si="1"/>
+        <v>05 Other Income</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>280</v>
@@ -2985,8 +2985,8 @@
         <v>212</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -2994,8 +2994,8 @@
         <v>270</v>
       </c>
       <c r="B41" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Xbudget</v>
+        <f t="shared" si="1"/>
+        <v>06 Xbudget</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>281</v>
@@ -3019,8 +3019,8 @@
         <v>257</v>
       </c>
       <c r="L41" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -3028,8 +3028,8 @@
         <v>270</v>
       </c>
       <c r="B42" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Xbudget</v>
+        <f t="shared" si="1"/>
+        <v>06 Xbudget</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>281</v>
@@ -3053,8 +3053,8 @@
         <v>257</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -3062,8 +3062,8 @@
         <v>270</v>
       </c>
       <c r="B43" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Xbudget</v>
+        <f t="shared" si="1"/>
+        <v>06 Xbudget</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>281</v>
@@ -3087,8 +3087,8 @@
         <v>257</v>
       </c>
       <c r="L43" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -3096,8 +3096,8 @@
         <v>270</v>
       </c>
       <c r="B44" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Xbudget</v>
+        <f t="shared" si="1"/>
+        <v>06 Xbudget</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>281</v>
@@ -3121,8 +3121,8 @@
         <v>257</v>
       </c>
       <c r="L44" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -3130,8 +3130,8 @@
         <v>270</v>
       </c>
       <c r="B45" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Xbudget</v>
+        <f t="shared" si="1"/>
+        <v>06 Xbudget</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>281</v>
@@ -3155,8 +3155,8 @@
         <v>257</v>
       </c>
       <c r="L45" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -3164,8 +3164,8 @@
         <v>270</v>
       </c>
       <c r="B46" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Xbudget</v>
+        <f t="shared" si="1"/>
+        <v>06 Xbudget</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>281</v>
@@ -3189,8 +3189,8 @@
         <v>257</v>
       </c>
       <c r="L46" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -3198,8 +3198,8 @@
         <v>270</v>
       </c>
       <c r="B47" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Xbudget</v>
+        <f t="shared" si="1"/>
+        <v>06 Xbudget</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>281</v>
@@ -3223,8 +3223,8 @@
         <v>257</v>
       </c>
       <c r="L47" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -3232,8 +3232,8 @@
         <v>270</v>
       </c>
       <c r="B48" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Xbudget</v>
+        <f t="shared" si="1"/>
+        <v>06 Xbudget</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>281</v>
@@ -3257,8 +3257,8 @@
         <v>257</v>
       </c>
       <c r="L48" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -3266,8 +3266,8 @@
         <v>271</v>
       </c>
       <c r="B49" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Adult Ed</v>
+        <f t="shared" si="1"/>
+        <v>11 Adult Ed</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>288</v>
@@ -3294,8 +3294,8 @@
         <v>4</v>
       </c>
       <c r="L49" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -3303,8 +3303,8 @@
         <v>271</v>
       </c>
       <c r="B50" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Adult Ed</v>
+        <f t="shared" si="1"/>
+        <v>11 Adult Ed</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>288</v>
@@ -3331,8 +3331,8 @@
         <v>4</v>
       </c>
       <c r="L50" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -3340,8 +3340,8 @@
         <v>271</v>
       </c>
       <c r="B51" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Adult Ed</v>
+        <f t="shared" si="1"/>
+        <v>11 Adult Ed</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>288</v>
@@ -3368,8 +3368,8 @@
         <v>4</v>
       </c>
       <c r="L51" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -3377,8 +3377,8 @@
         <v>271</v>
       </c>
       <c r="B52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Adult Ed</v>
+        <f t="shared" si="1"/>
+        <v>11 Adult Ed</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>288</v>
@@ -3405,8 +3405,8 @@
         <v>258</v>
       </c>
       <c r="L52" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -3414,8 +3414,8 @@
         <v>271</v>
       </c>
       <c r="B53" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Adult Ed</v>
+        <f t="shared" si="1"/>
+        <v>11 Adult Ed</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>288</v>
@@ -3442,8 +3442,8 @@
         <v>4</v>
       </c>
       <c r="L53" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -3451,8 +3451,8 @@
         <v>271</v>
       </c>
       <c r="B54" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Adult Ed</v>
+        <f t="shared" si="1"/>
+        <v>11 Adult Ed</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>288</v>
@@ -3479,8 +3479,8 @@
         <v>4</v>
       </c>
       <c r="L54" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -3488,8 +3488,8 @@
         <v>271</v>
       </c>
       <c r="B55" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Adult Ed</v>
+        <f t="shared" si="1"/>
+        <v>11 Adult Ed</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>288</v>
@@ -3516,8 +3516,8 @@
         <v>4</v>
       </c>
       <c r="L55" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -3525,8 +3525,8 @@
         <v>271</v>
       </c>
       <c r="B56" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Adult Ed</v>
+        <f t="shared" si="1"/>
+        <v>11 Adult Ed</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>288</v>
@@ -3553,8 +3553,8 @@
         <v>4</v>
       </c>
       <c r="L56" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -3562,8 +3562,8 @@
         <v>271</v>
       </c>
       <c r="B57" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Adult Ed</v>
+        <f t="shared" si="1"/>
+        <v>11 Adult Ed</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>288</v>
@@ -3590,8 +3590,8 @@
         <v>4</v>
       </c>
       <c r="L57" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -3599,8 +3599,8 @@
         <v>271</v>
       </c>
       <c r="B58" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Adult Ed</v>
+        <f t="shared" si="1"/>
+        <v>11 Adult Ed</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>288</v>
@@ -3627,8 +3627,8 @@
         <v>4</v>
       </c>
       <c r="L58" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -3636,8 +3636,8 @@
         <v>271</v>
       </c>
       <c r="B59" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Adult Ed</v>
+        <f t="shared" si="1"/>
+        <v>11 Adult Ed</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>288</v>
@@ -3664,8 +3664,8 @@
         <v>4</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -3673,8 +3673,8 @@
         <v>271</v>
       </c>
       <c r="B60" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Archives</v>
+        <f t="shared" si="1"/>
+        <v>17 Archives</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>296</v>
@@ -3701,8 +3701,8 @@
         <v>4</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -3710,8 +3710,8 @@
         <v>271</v>
       </c>
       <c r="B61" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Archives</v>
+        <f t="shared" si="1"/>
+        <v>17 Archives</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>296</v>
@@ -3738,8 +3738,8 @@
         <v>4</v>
       </c>
       <c r="L61" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -3747,8 +3747,8 @@
         <v>271</v>
       </c>
       <c r="B62" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Archives</v>
+        <f t="shared" si="1"/>
+        <v>17 Archives</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>296</v>
@@ -3775,8 +3775,8 @@
         <v>4</v>
       </c>
       <c r="L62" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -3784,8 +3784,8 @@
         <v>271</v>
       </c>
       <c r="B63" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Care &amp; Support</v>
+        <f t="shared" si="1"/>
+        <v>12 Care &amp; Support</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>325</v>
@@ -3812,8 +3812,8 @@
         <v>4</v>
       </c>
       <c r="L63" s="1">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -3821,8 +3821,8 @@
         <v>271</v>
       </c>
       <c r="B64" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Care &amp; Support</v>
+        <f t="shared" si="1"/>
+        <v>12 Care &amp; Support</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>325</v>
@@ -3849,8 +3849,8 @@
         <v>4</v>
       </c>
       <c r="L64" s="1">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -3858,8 +3858,8 @@
         <v>271</v>
       </c>
       <c r="B65" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Care &amp; Support</v>
+        <f t="shared" si="1"/>
+        <v>12 Care &amp; Support</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>325</v>
@@ -3886,8 +3886,8 @@
         <v>4</v>
       </c>
       <c r="L65" s="1">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -3895,8 +3895,8 @@
         <v>271</v>
       </c>
       <c r="B66" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Care &amp; Support</v>
+        <f t="shared" si="1"/>
+        <v>12 Care &amp; Support</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>325</v>
@@ -3923,8 +3923,8 @@
         <v>4</v>
       </c>
       <c r="L66" s="1">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -3932,8 +3932,8 @@
         <v>271</v>
       </c>
       <c r="B67" s="1" t="str">
-        <f t="shared" ref="B67:B130" si="4">E67</f>
-        <v>Care &amp; Support</v>
+        <f t="shared" ref="B67:B130" si="2">C67</f>
+        <v>12 Care &amp; Support</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>325</v>
@@ -3960,8 +3960,8 @@
         <v>4</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" ref="L67:L130" si="5">IF(B67=B66,L66,L66+1)</f>
-        <v>13</v>
+        <f t="shared" ref="L67:L130" si="3">IF(B67=B66,L66,L66+1)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -3969,8 +3969,8 @@
         <v>271</v>
       </c>
       <c r="B68" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Communications</v>
+        <f t="shared" si="2"/>
+        <v>19 Communications</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>328</v>
@@ -3997,8 +3997,8 @@
         <v>4</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -4006,8 +4006,8 @@
         <v>271</v>
       </c>
       <c r="B69" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Communications</v>
+        <f t="shared" si="2"/>
+        <v>19 Communications</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>328</v>
@@ -4034,8 +4034,8 @@
         <v>4</v>
       </c>
       <c r="L69" s="1">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -4043,8 +4043,8 @@
         <v>271</v>
       </c>
       <c r="B70" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Communications</v>
+        <f t="shared" si="2"/>
+        <v>19 Communications</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>328</v>
@@ -4071,8 +4071,8 @@
         <v>4</v>
       </c>
       <c r="L70" s="1">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -4080,8 +4080,8 @@
         <v>271</v>
       </c>
       <c r="B71" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Communications</v>
+        <f t="shared" si="2"/>
+        <v>19 Communications</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>328</v>
@@ -4108,8 +4108,8 @@
         <v>4</v>
       </c>
       <c r="L71" s="1">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -4117,8 +4117,8 @@
         <v>271</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Communications</v>
+        <f t="shared" si="2"/>
+        <v>19 Communications</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>328</v>
@@ -4145,8 +4145,8 @@
         <v>4</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -4154,8 +4154,8 @@
         <v>271</v>
       </c>
       <c r="B73" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Communications</v>
+        <f t="shared" si="2"/>
+        <v>19 Communications</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>328</v>
@@ -4182,8 +4182,8 @@
         <v>4</v>
       </c>
       <c r="L73" s="1">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -4191,8 +4191,8 @@
         <v>271</v>
       </c>
       <c r="B74" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Creation Care</v>
+        <f t="shared" si="2"/>
+        <v>14 Creation Care</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>292</v>
@@ -4219,8 +4219,8 @@
         <v>4</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -4228,8 +4228,8 @@
         <v>271</v>
       </c>
       <c r="B75" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Creation Care</v>
+        <f t="shared" si="2"/>
+        <v>14 Creation Care</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>292</v>
@@ -4256,8 +4256,8 @@
         <v>4</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -4265,8 +4265,8 @@
         <v>271</v>
       </c>
       <c r="B76" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Creation Care</v>
+        <f t="shared" si="2"/>
+        <v>14 Creation Care</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>292</v>
@@ -4293,8 +4293,8 @@
         <v>4</v>
       </c>
       <c r="L76" s="1">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -4302,8 +4302,8 @@
         <v>271</v>
       </c>
       <c r="B77" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Creation Care</v>
+        <f t="shared" si="2"/>
+        <v>14 Creation Care</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>292</v>
@@ -4330,8 +4330,8 @@
         <v>4</v>
       </c>
       <c r="L77" s="1">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -4339,8 +4339,8 @@
         <v>271</v>
       </c>
       <c r="B78" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Finance</v>
+        <f t="shared" si="2"/>
+        <v>16 Finance</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>295</v>
@@ -4367,8 +4367,8 @@
         <v>4</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -4376,8 +4376,8 @@
         <v>271</v>
       </c>
       <c r="B79" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Finance</v>
+        <f t="shared" si="2"/>
+        <v>16 Finance</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>295</v>
@@ -4404,8 +4404,8 @@
         <v>4</v>
       </c>
       <c r="L79" s="1">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -4413,8 +4413,8 @@
         <v>271</v>
       </c>
       <c r="B80" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Finance</v>
+        <f t="shared" si="2"/>
+        <v>16 Finance</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>295</v>
@@ -4441,8 +4441,8 @@
         <v>4</v>
       </c>
       <c r="L80" s="1">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -4450,8 +4450,8 @@
         <v>271</v>
       </c>
       <c r="B81" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Finance</v>
+        <f t="shared" si="2"/>
+        <v>16 Finance</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>295</v>
@@ -4478,8 +4478,8 @@
         <v>4</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -4487,8 +4487,8 @@
         <v>271</v>
       </c>
       <c r="B82" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Finance</v>
+        <f t="shared" si="2"/>
+        <v>16 Finance</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>295</v>
@@ -4515,8 +4515,8 @@
         <v>4</v>
       </c>
       <c r="L82" s="1">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -4524,8 +4524,8 @@
         <v>271</v>
       </c>
       <c r="B83" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Finance</v>
+        <f t="shared" si="2"/>
+        <v>16 Finance</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>295</v>
@@ -4552,8 +4552,8 @@
         <v>4</v>
       </c>
       <c r="L83" s="1">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -4561,8 +4561,8 @@
         <v>271</v>
       </c>
       <c r="B84" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Finance</v>
+        <f t="shared" si="2"/>
+        <v>16 Finance</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>295</v>
@@ -4589,8 +4589,8 @@
         <v>4</v>
       </c>
       <c r="L84" s="1">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -4598,8 +4598,8 @@
         <v>271</v>
       </c>
       <c r="B85" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Finance</v>
+        <f t="shared" si="2"/>
+        <v>16 Finance</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>295</v>
@@ -4626,8 +4626,8 @@
         <v>4</v>
       </c>
       <c r="L85" s="1">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -4635,8 +4635,8 @@
         <v>271</v>
       </c>
       <c r="B86" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Finance</v>
+        <f t="shared" si="2"/>
+        <v>16 Finance</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>295</v>
@@ -4663,8 +4663,8 @@
         <v>4</v>
       </c>
       <c r="L86" s="1">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -4672,8 +4672,8 @@
         <v>271</v>
       </c>
       <c r="B87" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>M&amp;B</v>
+        <f t="shared" si="2"/>
+        <v>09 M&amp;B</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>287</v>
@@ -4700,8 +4700,8 @@
         <v>4</v>
       </c>
       <c r="L87" s="1">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -4709,8 +4709,8 @@
         <v>271</v>
       </c>
       <c r="B88" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>M&amp;B</v>
+        <f t="shared" si="2"/>
+        <v>09 M&amp;B</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>287</v>
@@ -4737,8 +4737,8 @@
         <v>4</v>
       </c>
       <c r="L88" s="1">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -4746,8 +4746,8 @@
         <v>271</v>
       </c>
       <c r="B89" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>M&amp;B</v>
+        <f t="shared" si="2"/>
+        <v>09 M&amp;B</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>287</v>
@@ -4774,8 +4774,8 @@
         <v>4</v>
       </c>
       <c r="L89" s="1">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -4783,8 +4783,8 @@
         <v>271</v>
       </c>
       <c r="B90" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>M&amp;B</v>
+        <f t="shared" si="2"/>
+        <v>09 M&amp;B</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>287</v>
@@ -4811,8 +4811,8 @@
         <v>4</v>
       </c>
       <c r="L90" s="1">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -4820,8 +4820,8 @@
         <v>271</v>
       </c>
       <c r="B91" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>M&amp;B</v>
+        <f t="shared" si="2"/>
+        <v>09 M&amp;B</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>287</v>
@@ -4848,8 +4848,8 @@
         <v>4</v>
       </c>
       <c r="L91" s="1">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -4857,8 +4857,8 @@
         <v>271</v>
       </c>
       <c r="B92" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>M&amp;B</v>
+        <f t="shared" si="2"/>
+        <v>09 M&amp;B</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>287</v>
@@ -4885,8 +4885,8 @@
         <v>4</v>
       </c>
       <c r="L92" s="1">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -4894,8 +4894,8 @@
         <v>271</v>
       </c>
       <c r="B93" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>M&amp;B</v>
+        <f t="shared" si="2"/>
+        <v>09 M&amp;B</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>287</v>
@@ -4922,8 +4922,8 @@
         <v>4</v>
       </c>
       <c r="L93" s="1">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -4931,8 +4931,8 @@
         <v>271</v>
       </c>
       <c r="B94" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>M&amp;B</v>
+        <f t="shared" si="2"/>
+        <v>09 M&amp;B</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>287</v>
@@ -4959,8 +4959,8 @@
         <v>4</v>
       </c>
       <c r="L94" s="1">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -4968,8 +4968,8 @@
         <v>271</v>
       </c>
       <c r="B95" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>M&amp;B</v>
+        <f t="shared" si="2"/>
+        <v>09 M&amp;B</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>287</v>
@@ -4996,8 +4996,8 @@
         <v>4</v>
       </c>
       <c r="L95" s="1">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -5005,8 +5005,8 @@
         <v>271</v>
       </c>
       <c r="B96" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>M&amp;B</v>
+        <f t="shared" si="2"/>
+        <v>09 M&amp;B</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>287</v>
@@ -5033,8 +5033,8 @@
         <v>4</v>
       </c>
       <c r="L96" s="1">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -5042,8 +5042,8 @@
         <v>271</v>
       </c>
       <c r="B97" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>M&amp;B</v>
+        <f t="shared" si="2"/>
+        <v>09 M&amp;B</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>287</v>
@@ -5064,8 +5064,8 @@
         <v>257</v>
       </c>
       <c r="L97" s="1">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -5073,8 +5073,8 @@
         <v>271</v>
       </c>
       <c r="B98" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>M&amp;B</v>
+        <f t="shared" si="2"/>
+        <v>10 Covenant Fund</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>324</v>
@@ -5101,8 +5101,8 @@
         <v>4</v>
       </c>
       <c r="L98" s="1">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -5110,8 +5110,8 @@
         <v>271</v>
       </c>
       <c r="B99" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>M&amp;B</v>
+        <f t="shared" si="2"/>
+        <v>10 Covenant Fund</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>324</v>
@@ -5132,8 +5132,8 @@
         <v>257</v>
       </c>
       <c r="L99" s="1">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -5141,8 +5141,8 @@
         <v>271</v>
       </c>
       <c r="B100" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>M&amp;B</v>
+        <f t="shared" si="2"/>
+        <v>10 Covenant Fund</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>324</v>
@@ -5169,8 +5169,8 @@
         <v>4</v>
       </c>
       <c r="L100" s="1">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -5178,8 +5178,8 @@
         <v>271</v>
       </c>
       <c r="B101" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>M&amp;B</v>
+        <f t="shared" si="2"/>
+        <v>10 Covenant Fund</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>324</v>
@@ -5206,8 +5206,8 @@
         <v>4</v>
       </c>
       <c r="L101" s="1">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -5215,8 +5215,8 @@
         <v>271</v>
       </c>
       <c r="B102" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>M&amp;B</v>
+        <f t="shared" si="2"/>
+        <v>10 Covenant Fund</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>324</v>
@@ -5243,8 +5243,8 @@
         <v>4</v>
       </c>
       <c r="L102" s="1">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -5252,8 +5252,8 @@
         <v>271</v>
       </c>
       <c r="B103" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>M&amp;B</v>
+        <f t="shared" si="2"/>
+        <v>10 Covenant Fund</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>324</v>
@@ -5280,8 +5280,8 @@
         <v>4</v>
       </c>
       <c r="L103" s="1">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -5289,8 +5289,8 @@
         <v>271</v>
       </c>
       <c r="B104" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>M&amp;B</v>
+        <f t="shared" si="2"/>
+        <v>10 Covenant Fund</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>324</v>
@@ -5317,8 +5317,8 @@
         <v>4</v>
       </c>
       <c r="L104" s="1">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -5326,8 +5326,8 @@
         <v>271</v>
       </c>
       <c r="B105" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Membership</v>
+        <f t="shared" si="2"/>
+        <v>13 Membership</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>291</v>
@@ -5354,8 +5354,8 @@
         <v>4</v>
       </c>
       <c r="L105" s="1">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -5363,8 +5363,8 @@
         <v>271</v>
       </c>
       <c r="B106" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Membership</v>
+        <f t="shared" si="2"/>
+        <v>13 Membership</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>291</v>
@@ -5391,8 +5391,8 @@
         <v>4</v>
       </c>
       <c r="L106" s="1">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -5400,8 +5400,8 @@
         <v>271</v>
       </c>
       <c r="B107" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Membership</v>
+        <f t="shared" si="2"/>
+        <v>13 Membership</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>291</v>
@@ -5428,8 +5428,8 @@
         <v>4</v>
       </c>
       <c r="L107" s="1">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -5437,8 +5437,8 @@
         <v>271</v>
       </c>
       <c r="B108" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Membership</v>
+        <f t="shared" si="2"/>
+        <v>13 Membership</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>291</v>
@@ -5465,8 +5465,8 @@
         <v>4</v>
       </c>
       <c r="L108" s="1">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -5474,8 +5474,8 @@
         <v>271</v>
       </c>
       <c r="B109" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Office</v>
+        <f t="shared" si="2"/>
+        <v>18 Administration</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>327</v>
@@ -5502,1031 +5502,1031 @@
         <v>4</v>
       </c>
       <c r="L109" s="1">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B110" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>18 Administration</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L110" s="1">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B111" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>18 Administration</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L111" s="1">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B112" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>18 Administration</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L112" s="1">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B113" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>18 Administration</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L113" s="1">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B114" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>18 Administration</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L114" s="1">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B115" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>18 Administration</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L115" s="1">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B116" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>18 Administration</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L116" s="1">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B117" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>18 Administration</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L117" s="1">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B118" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>18 Administration</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L118" s="1">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B119" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>18 Administration</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L119" s="1">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B120" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>18 Administration</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L120" s="1">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B121" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>18 Administration</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L121" s="1">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B122" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>07 Worship &amp; Arts</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L122" s="1">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B123" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>07 Worship &amp; Arts</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L123" s="1">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B124" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>07 Worship &amp; Arts</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L124" s="1">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B125" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>07 Worship &amp; Arts</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L125" s="1">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B126" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>07 Worship &amp; Arts</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L126" s="1">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B127" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>07 Worship &amp; Arts</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L127" s="1">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B128" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>07 Worship &amp; Arts</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L128" s="1">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B129" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>07 Worship &amp; Arts</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L129" s="1">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B130" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>07 Worship &amp; Arts</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L130" s="1">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B131" s="1" t="str">
+        <f t="shared" ref="B131:B194" si="4">C131</f>
+        <v>07 Worship &amp; Arts</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L131" s="1">
+        <f t="shared" ref="L131:L194" si="5">IF(B131=B130,L130,L130+1)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B132" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>07 Worship &amp; Arts</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L132" s="1">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B110" s="1" t="str">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B133" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Office</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L110" s="1">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B111" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Office</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L111" s="1">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B112" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Office</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L112" s="1">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B113" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Office</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L113" s="1">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B114" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Office</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L114" s="1">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B115" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Office</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L115" s="1">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B116" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Office</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L116" s="1">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B117" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Office</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L117" s="1">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B118" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Office</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L118" s="1">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B119" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Office</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L119" s="1">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B120" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Office</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L120" s="1">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B121" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Office</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K121" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L121" s="1">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B122" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Personnel</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E122" s="1" t="s">
+        <v>08 Youth Ed</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L122" s="1">
+      <c r="F133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L133" s="1">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B123" s="1" t="str">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B134" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Personnel</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E123" s="1" t="s">
+        <v>08 Youth Ed</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I123" s="1" t="s">
+      <c r="F134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I134" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J123" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L123" s="1">
+      <c r="J134" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L134" s="1">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B124" s="1" t="str">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Personnel</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E124" s="1" t="s">
+        <v>08 Youth Ed</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L124" s="1">
+      <c r="F135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L135" s="1">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B125" s="1" t="str">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B136" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Personnel</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E125" s="1" t="s">
+        <v>08 Youth Ed</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F136" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L125" s="1">
+      <c r="G136" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L136" s="1">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B126" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Personnel</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L126" s="1">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B127" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Personnel</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L127" s="1">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B128" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Personnel</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L128" s="1">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B129" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Personnel</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L129" s="1">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B130" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Personnel</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L130" s="1">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B131" s="1" t="str">
-        <f t="shared" ref="B131:B194" si="6">E131</f>
-        <v>Personnel</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K131" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L131" s="1">
-        <f t="shared" ref="L131:L194" si="7">IF(B131=B130,L130,L130+1)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B132" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K132" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L132" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B133" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K133" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L133" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B134" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K134" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L134" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B135" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K135" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L135" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B136" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K136" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L136" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-    </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B137" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
+        <f t="shared" si="4"/>
+        <v>10 Covenant Fund</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>324</v>
@@ -6556,8 +6556,8 @@
         <v>4</v>
       </c>
       <c r="L137" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -6565,8 +6565,8 @@
         <v>271</v>
       </c>
       <c r="B138" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
+        <f t="shared" si="4"/>
+        <v>10 Covenant Fund</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>324</v>
@@ -6593,8 +6593,8 @@
         <v>4</v>
       </c>
       <c r="L138" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -6602,8 +6602,8 @@
         <v>271</v>
       </c>
       <c r="B139" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
+        <f t="shared" si="4"/>
+        <v>12 Care &amp; Support</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>325</v>
@@ -6630,8 +6630,8 @@
         <v>4</v>
       </c>
       <c r="L139" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>22</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -6639,8 +6639,8 @@
         <v>271</v>
       </c>
       <c r="B140" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
+        <f t="shared" si="4"/>
+        <v>12 Care &amp; Support</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>325</v>
@@ -6670,8 +6670,8 @@
         <v>4</v>
       </c>
       <c r="L140" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>22</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -6679,8 +6679,8 @@
         <v>271</v>
       </c>
       <c r="B141" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
+        <f t="shared" si="4"/>
+        <v>12 Care &amp; Support</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>325</v>
@@ -6707,8 +6707,8 @@
         <v>4</v>
       </c>
       <c r="L141" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>22</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -6716,8 +6716,8 @@
         <v>271</v>
       </c>
       <c r="B142" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
+        <f t="shared" si="4"/>
+        <v>12 Care &amp; Support</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>325</v>
@@ -6744,8 +6744,8 @@
         <v>4</v>
       </c>
       <c r="L142" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -6753,8 +6753,8 @@
         <v>271</v>
       </c>
       <c r="B143" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
+        <f t="shared" si="4"/>
+        <v>12 Care &amp; Support</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>325</v>
@@ -6781,8 +6781,8 @@
         <v>4</v>
       </c>
       <c r="L143" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>22</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -6790,8 +6790,8 @@
         <v>271</v>
       </c>
       <c r="B144" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
+        <f t="shared" si="4"/>
+        <v>12 Care &amp; Support</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>325</v>
@@ -6818,8 +6818,8 @@
         <v>4</v>
       </c>
       <c r="L144" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>22</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
@@ -6827,8 +6827,8 @@
         <v>271</v>
       </c>
       <c r="B145" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
+        <f t="shared" si="4"/>
+        <v>12 Care &amp; Support</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>325</v>
@@ -6858,8 +6858,8 @@
         <v>4</v>
       </c>
       <c r="L145" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>22</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
@@ -6867,8 +6867,8 @@
         <v>271</v>
       </c>
       <c r="B146" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
+        <f t="shared" si="4"/>
+        <v>12 Care &amp; Support</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>325</v>
@@ -6895,8 +6895,8 @@
         <v>4</v>
       </c>
       <c r="L146" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>22</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
@@ -6904,8 +6904,8 @@
         <v>271</v>
       </c>
       <c r="B147" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>326</v>
@@ -6932,8 +6932,8 @@
         <v>4</v>
       </c>
       <c r="L147" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>23</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
@@ -6941,8 +6941,8 @@
         <v>271</v>
       </c>
       <c r="B148" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>326</v>
@@ -6972,8 +6972,8 @@
         <v>4</v>
       </c>
       <c r="L148" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
@@ -6981,8 +6981,8 @@
         <v>271</v>
       </c>
       <c r="B149" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>326</v>
@@ -7009,8 +7009,8 @@
         <v>4</v>
       </c>
       <c r="L149" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>23</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
@@ -7018,8 +7018,8 @@
         <v>271</v>
       </c>
       <c r="B150" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>326</v>
@@ -7046,8 +7046,8 @@
         <v>4</v>
       </c>
       <c r="L150" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>23</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
@@ -7055,8 +7055,8 @@
         <v>271</v>
       </c>
       <c r="B151" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>326</v>
@@ -7083,8 +7083,8 @@
         <v>4</v>
       </c>
       <c r="L151" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>23</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
@@ -7092,8 +7092,8 @@
         <v>271</v>
       </c>
       <c r="B152" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
+        <f t="shared" si="4"/>
+        <v>18 Administration</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>327</v>
@@ -7120,8 +7120,8 @@
         <v>4</v>
       </c>
       <c r="L152" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>24</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
@@ -7129,8 +7129,8 @@
         <v>271</v>
       </c>
       <c r="B153" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
+        <f t="shared" si="4"/>
+        <v>18 Administration</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>327</v>
@@ -7160,8 +7160,8 @@
         <v>4</v>
       </c>
       <c r="L153" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
@@ -7169,8 +7169,8 @@
         <v>271</v>
       </c>
       <c r="B154" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
+        <f t="shared" si="4"/>
+        <v>18 Administration</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>327</v>
@@ -7197,8 +7197,8 @@
         <v>4</v>
       </c>
       <c r="L154" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
@@ -7206,8 +7206,8 @@
         <v>271</v>
       </c>
       <c r="B155" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
+        <f t="shared" si="4"/>
+        <v>18 Administration</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>327</v>
@@ -7234,8 +7234,8 @@
         <v>4</v>
       </c>
       <c r="L155" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
@@ -7243,8 +7243,8 @@
         <v>271</v>
       </c>
       <c r="B156" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
+        <f t="shared" si="4"/>
+        <v>18 Administration</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>327</v>
@@ -7271,8 +7271,8 @@
         <v>4</v>
       </c>
       <c r="L156" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
@@ -7280,8 +7280,8 @@
         <v>271</v>
       </c>
       <c r="B157" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
+        <f t="shared" si="4"/>
+        <v>19 Communications</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>328</v>
@@ -7311,8 +7311,8 @@
         <v>4</v>
       </c>
       <c r="L157" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
@@ -7320,8 +7320,8 @@
         <v>271</v>
       </c>
       <c r="B158" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
+        <f t="shared" si="4"/>
+        <v>19 Communications</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>328</v>
@@ -7348,8 +7348,8 @@
         <v>4</v>
       </c>
       <c r="L158" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
@@ -7357,8 +7357,8 @@
         <v>271</v>
       </c>
       <c r="B159" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
+        <f t="shared" si="4"/>
+        <v>19 Communications</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>328</v>
@@ -7385,8 +7385,8 @@
         <v>4</v>
       </c>
       <c r="L159" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
@@ -7394,8 +7394,8 @@
         <v>271</v>
       </c>
       <c r="B160" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Personnel</v>
+        <f t="shared" si="4"/>
+        <v>19 Communications</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>328</v>
@@ -7422,8 +7422,8 @@
         <v>4</v>
       </c>
       <c r="L160" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
@@ -7431,8 +7431,8 @@
         <v>271</v>
       </c>
       <c r="B161" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - gas&amp;electric</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>326</v>
@@ -7459,8 +7459,8 @@
         <v>4</v>
       </c>
       <c r="L161" s="1">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
@@ -7468,8 +7468,8 @@
         <v>271</v>
       </c>
       <c r="B162" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - gas&amp;electric</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>326</v>
@@ -7496,8 +7496,8 @@
         <v>4</v>
       </c>
       <c r="L162" s="1">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
@@ -7505,8 +7505,8 @@
         <v>271</v>
       </c>
       <c r="B163" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - gas&amp;electric</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>326</v>
@@ -7533,8 +7533,8 @@
         <v>4</v>
       </c>
       <c r="L163" s="1">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
@@ -7542,8 +7542,8 @@
         <v>271</v>
       </c>
       <c r="B164" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - gas&amp;electric</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>326</v>
@@ -7570,8 +7570,8 @@
         <v>4</v>
       </c>
       <c r="L164" s="1">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
@@ -7579,8 +7579,8 @@
         <v>271</v>
       </c>
       <c r="B165" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - gas&amp;electric</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>326</v>
@@ -7607,8 +7607,8 @@
         <v>4</v>
       </c>
       <c r="L165" s="1">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
@@ -7616,8 +7616,8 @@
         <v>271</v>
       </c>
       <c r="B166" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - gas&amp;electric</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>326</v>
@@ -7644,8 +7644,8 @@
         <v>4</v>
       </c>
       <c r="L166" s="1">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -7653,8 +7653,8 @@
         <v>271</v>
       </c>
       <c r="B167" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - gas&amp;electric</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>326</v>
@@ -7681,8 +7681,8 @@
         <v>4</v>
       </c>
       <c r="L167" s="1">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
@@ -7690,8 +7690,8 @@
         <v>271</v>
       </c>
       <c r="B168" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - gas&amp;electric</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>326</v>
@@ -7718,8 +7718,8 @@
         <v>4</v>
       </c>
       <c r="L168" s="1">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -7727,8 +7727,8 @@
         <v>271</v>
       </c>
       <c r="B169" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - gas&amp;electric</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>326</v>
@@ -7755,8 +7755,8 @@
         <v>4</v>
       </c>
       <c r="L169" s="1">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
@@ -7764,8 +7764,8 @@
         <v>271</v>
       </c>
       <c r="B170" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - gas&amp;electric</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>326</v>
@@ -7792,8 +7792,8 @@
         <v>4</v>
       </c>
       <c r="L170" s="1">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
@@ -7801,8 +7801,8 @@
         <v>271</v>
       </c>
       <c r="B171" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - gas&amp;electric</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>326</v>
@@ -7829,8 +7829,8 @@
         <v>4</v>
       </c>
       <c r="L171" s="1">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
@@ -7838,8 +7838,8 @@
         <v>271</v>
       </c>
       <c r="B172" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - misc</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>326</v>
@@ -7866,8 +7866,8 @@
         <v>4</v>
       </c>
       <c r="L172" s="1">
-        <f t="shared" si="7"/>
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
@@ -7875,8 +7875,8 @@
         <v>271</v>
       </c>
       <c r="B173" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - misc</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>326</v>
@@ -7903,8 +7903,8 @@
         <v>4</v>
       </c>
       <c r="L173" s="1">
-        <f t="shared" si="7"/>
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
@@ -7912,8 +7912,8 @@
         <v>271</v>
       </c>
       <c r="B174" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - misc</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>326</v>
@@ -7940,8 +7940,8 @@
         <v>4</v>
       </c>
       <c r="L174" s="1">
-        <f t="shared" si="7"/>
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
@@ -7949,8 +7949,8 @@
         <v>271</v>
       </c>
       <c r="B175" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - misc</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>326</v>
@@ -7977,8 +7977,8 @@
         <v>4</v>
       </c>
       <c r="L175" s="1">
-        <f t="shared" si="7"/>
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
@@ -7986,8 +7986,8 @@
         <v>271</v>
       </c>
       <c r="B176" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - misc</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>326</v>
@@ -8014,8 +8014,8 @@
         <v>4</v>
       </c>
       <c r="L176" s="1">
-        <f t="shared" si="7"/>
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
@@ -8023,8 +8023,8 @@
         <v>271</v>
       </c>
       <c r="B177" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - misc</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>326</v>
@@ -8051,8 +8051,8 @@
         <v>4</v>
       </c>
       <c r="L177" s="1">
-        <f t="shared" si="7"/>
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
@@ -8060,8 +8060,8 @@
         <v>271</v>
       </c>
       <c r="B178" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - misc</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>326</v>
@@ -8088,8 +8088,8 @@
         <v>4</v>
       </c>
       <c r="L178" s="1">
-        <f t="shared" si="7"/>
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
@@ -8097,8 +8097,8 @@
         <v>271</v>
       </c>
       <c r="B179" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - misc</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>326</v>
@@ -8125,8 +8125,8 @@
         <v>4</v>
       </c>
       <c r="L179" s="1">
-        <f t="shared" si="7"/>
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
@@ -8134,8 +8134,8 @@
         <v>271</v>
       </c>
       <c r="B180" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - misc</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>326</v>
@@ -8162,8 +8162,8 @@
         <v>4</v>
       </c>
       <c r="L180" s="1">
-        <f t="shared" si="7"/>
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
@@ -8171,8 +8171,8 @@
         <v>271</v>
       </c>
       <c r="B181" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - misc</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>326</v>
@@ -8199,8 +8199,8 @@
         <v>4</v>
       </c>
       <c r="L181" s="1">
-        <f t="shared" si="7"/>
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
@@ -8208,8 +8208,8 @@
         <v>271</v>
       </c>
       <c r="B182" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - misc</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>326</v>
@@ -8236,8 +8236,8 @@
         <v>4</v>
       </c>
       <c r="L182" s="1">
-        <f t="shared" si="7"/>
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
@@ -8245,8 +8245,8 @@
         <v>271</v>
       </c>
       <c r="B183" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - misc</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>326</v>
@@ -8273,8 +8273,8 @@
         <v>4</v>
       </c>
       <c r="L183" s="1">
-        <f t="shared" si="7"/>
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
@@ -8282,8 +8282,8 @@
         <v>271</v>
       </c>
       <c r="B184" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - misc</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>326</v>
@@ -8310,8 +8310,8 @@
         <v>4</v>
       </c>
       <c r="L184" s="1">
-        <f t="shared" si="7"/>
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
@@ -8319,8 +8319,8 @@
         <v>271</v>
       </c>
       <c r="B185" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - repairs</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>326</v>
@@ -8347,8 +8347,8 @@
         <v>4</v>
       </c>
       <c r="L185" s="1">
-        <f t="shared" si="7"/>
-        <v>23</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
@@ -8356,8 +8356,8 @@
         <v>271</v>
       </c>
       <c r="B186" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - repairs</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>326</v>
@@ -8384,8 +8384,8 @@
         <v>4</v>
       </c>
       <c r="L186" s="1">
-        <f t="shared" si="7"/>
-        <v>23</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
@@ -8393,8 +8393,8 @@
         <v>271</v>
       </c>
       <c r="B187" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - repairs</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>326</v>
@@ -8421,8 +8421,8 @@
         <v>4</v>
       </c>
       <c r="L187" s="1">
-        <f t="shared" si="7"/>
-        <v>23</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
@@ -8430,8 +8430,8 @@
         <v>271</v>
       </c>
       <c r="B188" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Property - repairs</v>
+        <f t="shared" si="4"/>
+        <v>15 Property</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>326</v>
@@ -8458,8 +8458,8 @@
         <v>4</v>
       </c>
       <c r="L188" s="1">
-        <f t="shared" si="7"/>
-        <v>23</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
@@ -8467,8 +8467,8 @@
         <v>271</v>
       </c>
       <c r="B189" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Worship</v>
+        <f t="shared" si="4"/>
+        <v>07 Worship &amp; Arts</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>322</v>
@@ -8489,8 +8489,8 @@
         <v>257</v>
       </c>
       <c r="L189" s="1">
-        <f t="shared" si="7"/>
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>27</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
@@ -8498,8 +8498,8 @@
         <v>271</v>
       </c>
       <c r="B190" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Worship</v>
+        <f t="shared" si="4"/>
+        <v>07 Worship &amp; Arts</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>322</v>
@@ -8526,8 +8526,8 @@
         <v>4</v>
       </c>
       <c r="L190" s="1">
-        <f t="shared" si="7"/>
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>27</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
@@ -8535,8 +8535,8 @@
         <v>271</v>
       </c>
       <c r="B191" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Worship</v>
+        <f t="shared" si="4"/>
+        <v>07 Worship &amp; Arts</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>322</v>
@@ -8563,8 +8563,8 @@
         <v>4</v>
       </c>
       <c r="L191" s="1">
-        <f t="shared" si="7"/>
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>27</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
@@ -8572,8 +8572,8 @@
         <v>271</v>
       </c>
       <c r="B192" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Worship</v>
+        <f t="shared" si="4"/>
+        <v>07 Worship &amp; Arts</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>322</v>
@@ -8600,8 +8600,8 @@
         <v>4</v>
       </c>
       <c r="L192" s="1">
-        <f t="shared" si="7"/>
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>27</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
@@ -8609,8 +8609,8 @@
         <v>271</v>
       </c>
       <c r="B193" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Worship</v>
+        <f t="shared" si="4"/>
+        <v>07 Worship &amp; Arts</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>322</v>
@@ -8637,8 +8637,8 @@
         <v>4</v>
       </c>
       <c r="L193" s="1">
-        <f t="shared" si="7"/>
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>27</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
@@ -8646,8 +8646,8 @@
         <v>271</v>
       </c>
       <c r="B194" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Worship</v>
+        <f t="shared" si="4"/>
+        <v>07 Worship &amp; Arts</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>322</v>
@@ -8674,8 +8674,8 @@
         <v>4</v>
       </c>
       <c r="L194" s="1">
-        <f t="shared" si="7"/>
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>27</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
@@ -8683,8 +8683,8 @@
         <v>271</v>
       </c>
       <c r="B195" s="1" t="str">
-        <f t="shared" ref="B195:B236" si="8">E195</f>
-        <v>Worship</v>
+        <f t="shared" ref="B195:B236" si="6">C195</f>
+        <v>07 Worship &amp; Arts</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>322</v>
@@ -8711,8 +8711,8 @@
         <v>4</v>
       </c>
       <c r="L195" s="1">
-        <f t="shared" ref="L195:L236" si="9">IF(B195=B194,L194,L194+1)</f>
-        <v>24</v>
+        <f t="shared" ref="L195:L236" si="7">IF(B195=B194,L194,L194+1)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -8720,8 +8720,8 @@
         <v>271</v>
       </c>
       <c r="B196" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Worship</v>
+        <f t="shared" si="6"/>
+        <v>07 Worship &amp; Arts</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>322</v>
@@ -8748,8 +8748,8 @@
         <v>4</v>
       </c>
       <c r="L196" s="1">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -8757,8 +8757,8 @@
         <v>271</v>
       </c>
       <c r="B197" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Worship</v>
+        <f t="shared" si="6"/>
+        <v>07 Worship &amp; Arts</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>322</v>
@@ -8785,8 +8785,8 @@
         <v>4</v>
       </c>
       <c r="L197" s="1">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
@@ -8794,8 +8794,8 @@
         <v>271</v>
       </c>
       <c r="B198" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Worship</v>
+        <f t="shared" si="6"/>
+        <v>07 Worship &amp; Arts</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>322</v>
@@ -8822,8 +8822,8 @@
         <v>4</v>
       </c>
       <c r="L198" s="1">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -8831,8 +8831,8 @@
         <v>271</v>
       </c>
       <c r="B199" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Worship</v>
+        <f t="shared" si="6"/>
+        <v>07 Worship &amp; Arts</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>322</v>
@@ -8859,8 +8859,8 @@
         <v>4</v>
       </c>
       <c r="L199" s="1">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -8868,8 +8868,8 @@
         <v>271</v>
       </c>
       <c r="B200" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Worship</v>
+        <f t="shared" si="6"/>
+        <v>07 Worship &amp; Arts</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>322</v>
@@ -8896,8 +8896,8 @@
         <v>4</v>
       </c>
       <c r="L200" s="1">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
@@ -8905,8 +8905,8 @@
         <v>271</v>
       </c>
       <c r="B201" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Worship</v>
+        <f t="shared" si="6"/>
+        <v>07 Worship &amp; Arts</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>322</v>
@@ -8933,8 +8933,8 @@
         <v>4</v>
       </c>
       <c r="L201" s="1">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
@@ -8942,8 +8942,8 @@
         <v>271</v>
       </c>
       <c r="B202" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Worship</v>
+        <f t="shared" si="6"/>
+        <v>07 Worship &amp; Arts</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>322</v>
@@ -8970,8 +8970,8 @@
         <v>4</v>
       </c>
       <c r="L202" s="1">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
@@ -8979,8 +8979,8 @@
         <v>271</v>
       </c>
       <c r="B203" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Worship</v>
+        <f t="shared" si="6"/>
+        <v>07 Worship &amp; Arts</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>322</v>
@@ -9007,8 +9007,8 @@
         <v>4</v>
       </c>
       <c r="L203" s="1">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
@@ -9016,8 +9016,8 @@
         <v>271</v>
       </c>
       <c r="B204" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Worship</v>
+        <f t="shared" si="6"/>
+        <v>07 Worship &amp; Arts</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>322</v>
@@ -9044,8 +9044,8 @@
         <v>4</v>
       </c>
       <c r="L204" s="1">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
@@ -9053,8 +9053,8 @@
         <v>271</v>
       </c>
       <c r="B205" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Worship</v>
+        <f t="shared" si="6"/>
+        <v>07 Worship &amp; Arts</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>322</v>
@@ -9081,8 +9081,8 @@
         <v>4</v>
       </c>
       <c r="L205" s="1">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
@@ -9090,8 +9090,8 @@
         <v>271</v>
       </c>
       <c r="B206" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Worship</v>
+        <f t="shared" si="6"/>
+        <v>07 Worship &amp; Arts</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>322</v>
@@ -9118,8 +9118,8 @@
         <v>192</v>
       </c>
       <c r="L206" s="1">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
@@ -9127,8 +9127,8 @@
         <v>271</v>
       </c>
       <c r="B207" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Worship</v>
+        <f t="shared" si="6"/>
+        <v>07 Worship &amp; Arts</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>322</v>
@@ -9155,8 +9155,8 @@
         <v>4</v>
       </c>
       <c r="L207" s="1">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
@@ -9164,8 +9164,8 @@
         <v>271</v>
       </c>
       <c r="B208" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Worship</v>
+        <f t="shared" si="6"/>
+        <v>07 Worship &amp; Arts</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>322</v>
@@ -9192,8 +9192,8 @@
         <v>4</v>
       </c>
       <c r="L208" s="1">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
@@ -9201,8 +9201,8 @@
         <v>271</v>
       </c>
       <c r="B209" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Worship</v>
+        <f t="shared" si="6"/>
+        <v>07 Worship &amp; Arts</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>322</v>
@@ -9229,8 +9229,8 @@
         <v>4</v>
       </c>
       <c r="L209" s="1">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
@@ -9238,8 +9238,8 @@
         <v>271</v>
       </c>
       <c r="B210" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Worship</v>
+        <f t="shared" si="6"/>
+        <v>07 Worship &amp; Arts</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>322</v>
@@ -9266,8 +9266,8 @@
         <v>4</v>
       </c>
       <c r="L210" s="1">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
@@ -9275,8 +9275,8 @@
         <v>271</v>
       </c>
       <c r="B211" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Worship</v>
+        <f t="shared" si="6"/>
+        <v>07 Worship &amp; Arts</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>322</v>
@@ -9303,8 +9303,8 @@
         <v>4</v>
       </c>
       <c r="L211" s="1">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
@@ -9312,8 +9312,8 @@
         <v>271</v>
       </c>
       <c r="B212" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Worship</v>
+        <f t="shared" si="6"/>
+        <v>07 Worship &amp; Arts</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>322</v>
@@ -9340,8 +9340,8 @@
         <v>4</v>
       </c>
       <c r="L212" s="1">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
@@ -9349,8 +9349,8 @@
         <v>271</v>
       </c>
       <c r="B213" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Worship</v>
+        <f t="shared" si="6"/>
+        <v>07 Worship &amp; Arts</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>322</v>
@@ -9377,8 +9377,8 @@
         <v>4</v>
       </c>
       <c r="L213" s="1">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
@@ -9386,8 +9386,8 @@
         <v>271</v>
       </c>
       <c r="B214" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Xbudget</v>
+        <f t="shared" si="6"/>
+        <v>20 Xbudget</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>301</v>
@@ -9408,8 +9408,8 @@
         <v>257</v>
       </c>
       <c r="L214" s="1">
-        <f t="shared" si="9"/>
-        <v>25</v>
+        <f t="shared" si="7"/>
+        <v>28</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
@@ -9417,8 +9417,8 @@
         <v>271</v>
       </c>
       <c r="B215" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Xbudget</v>
+        <f t="shared" si="6"/>
+        <v>20 Xbudget</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>301</v>
@@ -9439,8 +9439,8 @@
         <v>257</v>
       </c>
       <c r="L215" s="1">
-        <f t="shared" si="9"/>
-        <v>25</v>
+        <f t="shared" si="7"/>
+        <v>28</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
@@ -9448,8 +9448,8 @@
         <v>271</v>
       </c>
       <c r="B216" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Xbudget</v>
+        <f t="shared" si="6"/>
+        <v>20 Xbudget</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>301</v>
@@ -9470,8 +9470,8 @@
         <v>257</v>
       </c>
       <c r="L216" s="1">
-        <f t="shared" si="9"/>
-        <v>25</v>
+        <f t="shared" si="7"/>
+        <v>28</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
@@ -9479,8 +9479,8 @@
         <v>271</v>
       </c>
       <c r="B217" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Xbudget</v>
+        <f t="shared" si="6"/>
+        <v>20 Xbudget</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>301</v>
@@ -9501,8 +9501,8 @@
         <v>257</v>
       </c>
       <c r="L217" s="1">
-        <f t="shared" si="9"/>
-        <v>25</v>
+        <f t="shared" si="7"/>
+        <v>28</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
@@ -9510,8 +9510,8 @@
         <v>271</v>
       </c>
       <c r="B218" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Xbudget</v>
+        <f t="shared" si="6"/>
+        <v>20 Xbudget</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>301</v>
@@ -9532,8 +9532,8 @@
         <v>257</v>
       </c>
       <c r="L218" s="1">
-        <f t="shared" si="9"/>
-        <v>25</v>
+        <f t="shared" si="7"/>
+        <v>28</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
@@ -9541,8 +9541,8 @@
         <v>271</v>
       </c>
       <c r="B219" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Xbudget</v>
+        <f t="shared" si="6"/>
+        <v>20 Xbudget</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>301</v>
@@ -9563,8 +9563,8 @@
         <v>257</v>
       </c>
       <c r="L219" s="1">
-        <f t="shared" si="9"/>
-        <v>25</v>
+        <f t="shared" si="7"/>
+        <v>28</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
@@ -9572,8 +9572,8 @@
         <v>271</v>
       </c>
       <c r="B220" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Xbudget</v>
+        <f t="shared" si="6"/>
+        <v>20 Xbudget</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>301</v>
@@ -9594,8 +9594,8 @@
         <v>257</v>
       </c>
       <c r="L220" s="1">
-        <f t="shared" si="9"/>
-        <v>25</v>
+        <f t="shared" si="7"/>
+        <v>28</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
@@ -9603,8 +9603,8 @@
         <v>271</v>
       </c>
       <c r="B221" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Xbudget</v>
+        <f t="shared" si="6"/>
+        <v>20 Xbudget</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>301</v>
@@ -9625,8 +9625,8 @@
         <v>257</v>
       </c>
       <c r="L221" s="1">
-        <f t="shared" si="9"/>
-        <v>25</v>
+        <f t="shared" si="7"/>
+        <v>28</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
@@ -9634,8 +9634,8 @@
         <v>271</v>
       </c>
       <c r="B222" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Youth Ed</v>
+        <f t="shared" si="6"/>
+        <v>08 Youth Ed</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>323</v>
@@ -9662,8 +9662,8 @@
         <v>4</v>
       </c>
       <c r="L222" s="1">
-        <f t="shared" si="9"/>
-        <v>26</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
@@ -9671,8 +9671,8 @@
         <v>271</v>
       </c>
       <c r="B223" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Youth Ed</v>
+        <f t="shared" si="6"/>
+        <v>08 Youth Ed</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>323</v>
@@ -9699,8 +9699,8 @@
         <v>4</v>
       </c>
       <c r="L223" s="1">
-        <f t="shared" si="9"/>
-        <v>26</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
@@ -9708,8 +9708,8 @@
         <v>271</v>
       </c>
       <c r="B224" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Youth Ed</v>
+        <f t="shared" si="6"/>
+        <v>08 Youth Ed</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>323</v>
@@ -9736,8 +9736,8 @@
         <v>4</v>
       </c>
       <c r="L224" s="1">
-        <f t="shared" si="9"/>
-        <v>26</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
@@ -9745,8 +9745,8 @@
         <v>271</v>
       </c>
       <c r="B225" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Youth Ed</v>
+        <f t="shared" si="6"/>
+        <v>08 Youth Ed</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>323</v>
@@ -9773,8 +9773,8 @@
         <v>4</v>
       </c>
       <c r="L225" s="1">
-        <f t="shared" si="9"/>
-        <v>26</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -9782,8 +9782,8 @@
         <v>271</v>
       </c>
       <c r="B226" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Youth Ed</v>
+        <f t="shared" si="6"/>
+        <v>08 Youth Ed</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>323</v>
@@ -9810,8 +9810,8 @@
         <v>4</v>
       </c>
       <c r="L226" s="1">
-        <f t="shared" si="9"/>
-        <v>26</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -9819,8 +9819,8 @@
         <v>271</v>
       </c>
       <c r="B227" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Youth Ed</v>
+        <f t="shared" si="6"/>
+        <v>08 Youth Ed</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>323</v>
@@ -9847,8 +9847,8 @@
         <v>4</v>
       </c>
       <c r="L227" s="1">
-        <f t="shared" si="9"/>
-        <v>26</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -9856,8 +9856,8 @@
         <v>271</v>
       </c>
       <c r="B228" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Youth Ed</v>
+        <f t="shared" si="6"/>
+        <v>08 Youth Ed</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>323</v>
@@ -9884,8 +9884,8 @@
         <v>4</v>
       </c>
       <c r="L228" s="1">
-        <f t="shared" si="9"/>
-        <v>26</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -9893,8 +9893,8 @@
         <v>271</v>
       </c>
       <c r="B229" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Youth Ed</v>
+        <f t="shared" si="6"/>
+        <v>08 Youth Ed</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>323</v>
@@ -9921,8 +9921,8 @@
         <v>4</v>
       </c>
       <c r="L229" s="1">
-        <f t="shared" si="9"/>
-        <v>26</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -9930,8 +9930,8 @@
         <v>271</v>
       </c>
       <c r="B230" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Youth Ed</v>
+        <f t="shared" si="6"/>
+        <v>08 Youth Ed</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>323</v>
@@ -9958,8 +9958,8 @@
         <v>4</v>
       </c>
       <c r="L230" s="1">
-        <f t="shared" si="9"/>
-        <v>26</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
@@ -9967,8 +9967,8 @@
         <v>271</v>
       </c>
       <c r="B231" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Youth Ed</v>
+        <f t="shared" si="6"/>
+        <v>08 Youth Ed</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>323</v>
@@ -9995,8 +9995,8 @@
         <v>4</v>
       </c>
       <c r="L231" s="1">
-        <f t="shared" si="9"/>
-        <v>26</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
@@ -10004,8 +10004,8 @@
         <v>271</v>
       </c>
       <c r="B232" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Youth Ed</v>
+        <f t="shared" si="6"/>
+        <v>08 Youth Ed</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>323</v>
@@ -10032,8 +10032,8 @@
         <v>4</v>
       </c>
       <c r="L232" s="1">
-        <f t="shared" si="9"/>
-        <v>26</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
@@ -10041,8 +10041,8 @@
         <v>271</v>
       </c>
       <c r="B233" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Youth Ed</v>
+        <f t="shared" si="6"/>
+        <v>08 Youth Ed</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>323</v>
@@ -10069,8 +10069,8 @@
         <v>4</v>
       </c>
       <c r="L233" s="1">
-        <f t="shared" si="9"/>
-        <v>26</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
@@ -10078,8 +10078,8 @@
         <v>271</v>
       </c>
       <c r="B234" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Youth Ed</v>
+        <f t="shared" si="6"/>
+        <v>08 Youth Ed</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>323</v>
@@ -10106,8 +10106,8 @@
         <v>4</v>
       </c>
       <c r="L234" s="1">
-        <f t="shared" si="9"/>
-        <v>26</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
@@ -10115,8 +10115,8 @@
         <v>271</v>
       </c>
       <c r="B235" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Youth Ed</v>
+        <f t="shared" si="6"/>
+        <v>08 Youth Ed</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>323</v>
@@ -10143,8 +10143,8 @@
         <v>4</v>
       </c>
       <c r="L235" s="1">
-        <f t="shared" si="9"/>
-        <v>26</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
@@ -10152,8 +10152,8 @@
         <v>271</v>
       </c>
       <c r="B236" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Youth Ed</v>
+        <f t="shared" si="6"/>
+        <v>08 Youth Ed</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>323</v>
@@ -10180,8 +10180,8 @@
         <v>4</v>
       </c>
       <c r="L236" s="1">
-        <f t="shared" si="9"/>
-        <v>26</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/input_files/map.xlsx
+++ b/input_files/map.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\01_Dave\Programs\GitHub_home\budget\input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BB7802-84F1-4952-AE60-AD9A628606F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFBDF63-9F0C-4264-A3B5-FEF509F8C7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$236</definedName>
-    <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable21" hidden="1">'[1]budget 11-01-23'!$A$1:$M$198</definedName>
-    <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable31" hidden="1">Table1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$222</definedName>
+    <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable2" hidden="1">'[1]budget 11-01-23'!$A$1:$M$198</definedName>
+    <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable3" hidden="1">Table1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -120,7 +121,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table2" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_budget_2024.xlsxTable21"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_budget_2024.xlsxTable2"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -129,7 +130,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table3">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_budget_2024.xlsxTable31"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_budget_2024.xlsxTable3"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1267,7 +1268,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{6F80153F-CDA1-4E91-9FDD-43E3E0555995}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1502,12 +1510,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M236"/>
+  <dimension ref="A1:M222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L17" sqref="L17"/>
-      <selection pane="bottomLeft" activeCell="D91" sqref="D91:D92"/>
+      <selection pane="bottomLeft" activeCell="A223" sqref="A223:XFD236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10623,522 +10631,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A223" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B223" s="1" t="str">
-        <f>C223</f>
-        <v>20 Xbudget</v>
-      </c>
-      <c r="C223" s="1" t="str">
-        <f>D223</f>
-        <v>20 Xbudget</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G223" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H223" t="s">
-        <v>250</v>
-      </c>
-      <c r="L223" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="M223" s="1">
-        <f>IF(B223=B222,M222,M222+1)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A224" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B224" s="1" t="str">
-        <f>C224</f>
-        <v>20 Xbudget</v>
-      </c>
-      <c r="C224" s="1" t="str">
-        <f>D224</f>
-        <v>20 Xbudget</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G224" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H224" t="s">
-        <v>241</v>
-      </c>
-      <c r="L224" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="M224" s="1">
-        <f>IF(B224=B223,M223,M223+1)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A225" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B225" s="1" t="str">
-        <f>C225</f>
-        <v>20 Xbudget</v>
-      </c>
-      <c r="C225" s="1" t="str">
-        <f>D225</f>
-        <v>20 Xbudget</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G225" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H225" t="s">
-        <v>251</v>
-      </c>
-      <c r="L225" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="M225" s="1">
-        <f>IF(B225=B224,M224,M224+1)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A226" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B226" s="1" t="str">
-        <f>C226</f>
-        <v>20 Xbudget</v>
-      </c>
-      <c r="C226" s="1" t="str">
-        <f>D226</f>
-        <v>20 Xbudget</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G226" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H226" t="s">
-        <v>252</v>
-      </c>
-      <c r="L226" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="M226" s="1">
-        <f>IF(B226=B225,M225,M225+1)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A227" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B227" s="1" t="str">
-        <f>C227</f>
-        <v>20 Xbudget</v>
-      </c>
-      <c r="C227" s="1" t="str">
-        <f>D227</f>
-        <v>20 Xbudget</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H227" t="s">
-        <v>253</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="M227" s="1">
-        <f>IF(B227=B226,M226,M226+1)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A228" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B228" s="1" t="str">
-        <f>C228</f>
-        <v>20 Xbudget</v>
-      </c>
-      <c r="C228" s="1" t="str">
-        <f>D228</f>
-        <v>20 Xbudget</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G228" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H228" t="s">
-        <v>254</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="M228" s="1">
-        <f>IF(B228=B227,M227,M227+1)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A229" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B229" s="1" t="str">
-        <f>C229</f>
-        <v>20 Xbudget</v>
-      </c>
-      <c r="C229" s="1" t="str">
-        <f>D229</f>
-        <v>20 Xbudget</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G229" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H229" t="s">
-        <v>255</v>
-      </c>
-      <c r="L229" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="M229" s="1">
-        <f>IF(B229=B228,M228,M228+1)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A230" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B230" s="1" t="str">
-        <f>C230</f>
-        <v>20 Xbudget</v>
-      </c>
-      <c r="C230" s="1" t="str">
-        <f>D230</f>
-        <v>20 Xbudget</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G230" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H230" t="s">
-        <v>256</v>
-      </c>
-      <c r="L230" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="M230" s="1">
-        <f>IF(B230=B229,M229,M229+1)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A231" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B231" s="1" t="str">
-        <f>C231</f>
-        <v>Xbudget</v>
-      </c>
-      <c r="C231" s="1" t="str">
-        <f>D231</f>
-        <v>Xbudget</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G231" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H231" t="s">
-        <v>244</v>
-      </c>
-      <c r="I231" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L231" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="M231" s="1">
-        <f>IF(B231=B230,M230,M230+1)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A232" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B232" s="1" t="str">
-        <f>C232</f>
-        <v>Xbudget</v>
-      </c>
-      <c r="C232" s="1" t="str">
-        <f>D232</f>
-        <v>Xbudget</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F232" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G232" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H232" t="s">
-        <v>245</v>
-      </c>
-      <c r="I232" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L232" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="M232" s="1">
-        <f>IF(B232=B231,M231,M231+1)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A233" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B233" s="1" t="str">
-        <f>C233</f>
-        <v>Xbudget</v>
-      </c>
-      <c r="C233" s="1" t="str">
-        <f>D233</f>
-        <v>Xbudget</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F233" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G233" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H233" t="s">
-        <v>237</v>
-      </c>
-      <c r="I233" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L233" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="M233" s="1">
-        <f>IF(B233=B232,M232,M232+1)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A234" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B234" s="1" t="str">
-        <f>C234</f>
-        <v>Xbudget</v>
-      </c>
-      <c r="C234" s="1" t="str">
-        <f>D234</f>
-        <v>Xbudget</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G234" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H234" t="s">
-        <v>238</v>
-      </c>
-      <c r="I234" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L234" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="M234" s="1">
-        <f>IF(B234=B233,M233,M233+1)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A235" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B235" s="1" t="str">
-        <f>C235</f>
-        <v>Xbudget</v>
-      </c>
-      <c r="C235" s="1" t="str">
-        <f>D235</f>
-        <v>Xbudget</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G235" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H235" t="s">
-        <v>246</v>
-      </c>
-      <c r="I235" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L235" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="M235" s="1">
-        <f>IF(B235=B234,M234,M234+1)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A236" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B236" s="1" t="str">
-        <f>C236</f>
-        <v>Xbudget</v>
-      </c>
-      <c r="C236" s="1" t="str">
-        <f>D236</f>
-        <v>Xbudget</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H236" t="s">
-        <v>247</v>
-      </c>
-      <c r="I236" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L236" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="M236" s="1">
-        <f>IF(B236=B235,M235,M235+1)</f>
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:M236" xr:uid="{9210D030-08A6-47C5-BE1B-A368CD904E6C}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M236">
       <sortCondition ref="D1:D236"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A2:M236">
-    <cfRule type="expression" dxfId="0" priority="5">
+  <conditionalFormatting sqref="A2:M222">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>MOD($M2,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11147,4 +10647,532 @@
   <pageSetup scale="40" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6BED37-98F6-447C-9D06-707E3FCDE95E}">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <f>C1</f>
+        <v>20 Xbudget</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <f>D1</f>
+        <v>20 Xbudget</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M1" s="1">
+        <f>IF(B1=Sheet1!B222,Sheet1!M222,Sheet1!M222+1)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>C2</f>
+        <v>20 Xbudget</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>D2</f>
+        <v>20 Xbudget</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M2" s="1">
+        <f>IF(B2=B1,M1,M1+1)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>C3</f>
+        <v>20 Xbudget</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>D3</f>
+        <v>20 Xbudget</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H3" t="s">
+        <v>251</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M3" s="1">
+        <f>IF(B3=B2,M2,M2+1)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>C4</f>
+        <v>20 Xbudget</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>D4</f>
+        <v>20 Xbudget</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H4" t="s">
+        <v>252</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M4" s="1">
+        <f>IF(B4=B3,M3,M3+1)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>C5</f>
+        <v>20 Xbudget</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>D5</f>
+        <v>20 Xbudget</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H5" t="s">
+        <v>253</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M5" s="1">
+        <f>IF(B5=B4,M4,M4+1)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>C6</f>
+        <v>20 Xbudget</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>D6</f>
+        <v>20 Xbudget</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H6" t="s">
+        <v>254</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M6" s="1">
+        <f>IF(B6=B5,M5,M5+1)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>C7</f>
+        <v>20 Xbudget</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>D7</f>
+        <v>20 Xbudget</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M7" s="1">
+        <f>IF(B7=B6,M6,M6+1)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f>C8</f>
+        <v>20 Xbudget</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>D8</f>
+        <v>20 Xbudget</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H8" t="s">
+        <v>256</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M8" s="1">
+        <f>IF(B8=B7,M7,M7+1)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>C9</f>
+        <v>Xbudget</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>D9</f>
+        <v>Xbudget</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H9" t="s">
+        <v>244</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M9" s="1">
+        <f>IF(B9=B8,M8,M8+1)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f>C10</f>
+        <v>Xbudget</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>D10</f>
+        <v>Xbudget</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H10" t="s">
+        <v>245</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M10" s="1">
+        <f>IF(B10=B9,M9,M9+1)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f>C11</f>
+        <v>Xbudget</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>D11</f>
+        <v>Xbudget</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H11" t="s">
+        <v>237</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M11" s="1">
+        <f>IF(B11=B10,M10,M10+1)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f>C12</f>
+        <v>Xbudget</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>D12</f>
+        <v>Xbudget</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M12" s="1">
+        <f>IF(B12=B11,M11,M11+1)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f>C13</f>
+        <v>Xbudget</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>D13</f>
+        <v>Xbudget</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H13" t="s">
+        <v>246</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M13" s="1">
+        <f>IF(B13=B12,M12,M12+1)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f>C14</f>
+        <v>Xbudget</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>D14</f>
+        <v>Xbudget</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H14" t="s">
+        <v>247</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M14" s="1">
+        <f>IF(B14=B13,M13,M13+1)</f>
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:M14">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD($M1,2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input_files/map.xlsx
+++ b/input_files/map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\01_Dave\Programs\GitHub_home\budget\input_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\01_Dave\Programs\GitHub_home\budget\input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA39FB4-C211-4DB9-830C-21DE0E131325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F370ABA-724C-4982-BE69-5889BAC4E5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10185" yWindow="0" windowWidth="18720" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -20,8 +20,8 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$244</definedName>
-    <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable2" hidden="1">'[1]budget 11-01-23'!$A$1:$M$198</definedName>
-    <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable3" hidden="1">Table1</definedName>
+    <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable21" hidden="1">'[1]budget 11-01-23'!$A$1:$M$198</definedName>
+    <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable31" hidden="1">Table1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -120,7 +120,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table2" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_budget_2024.xlsxTable2"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_budget_2024.xlsxTable21"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -129,7 +129,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table3">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_budget_2024.xlsxTable3"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_budget_2024.xlsxTable31"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="350">
   <si>
     <t>Recurring or 1-time Expense</t>
   </si>
@@ -1563,9 +1563,9 @@
   <dimension ref="A1:L244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L17" sqref="L17"/>
-      <selection pane="bottomLeft" activeCell="F155" sqref="F155"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1648,6 +1648,9 @@
       <c r="H2" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="K2" s="1" t="s">
         <v>249</v>
       </c>
@@ -1716,6 +1719,9 @@
       <c r="G4" t="s">
         <v>234</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="K4" s="1" t="s">
         <v>249</v>
       </c>
@@ -3187,6 +3193,9 @@
       <c r="G44" t="s">
         <v>240</v>
       </c>
+      <c r="J44" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="K44" s="1" t="s">
         <v>249</v>
       </c>
@@ -4859,7 +4868,7 @@
         <v>189</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>4</v>
@@ -5564,6 +5573,9 @@
       <c r="G108" t="s">
         <v>231</v>
       </c>
+      <c r="J108" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="K108" s="1" t="s">
         <v>249</v>
       </c>
@@ -5743,6 +5755,9 @@
       <c r="G113" t="s">
         <v>241</v>
       </c>
+      <c r="J113" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="K113" s="1" t="s">
         <v>249</v>
       </c>
@@ -8266,7 +8281,7 @@
         <v>189</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K181" s="1" t="s">
         <v>4</v>
@@ -10124,6 +10139,9 @@
       <c r="G231" t="s">
         <v>242</v>
       </c>
+      <c r="J231" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="K231" s="1" t="s">
         <v>249</v>
       </c>
@@ -10155,6 +10173,9 @@
       <c r="G232" t="s">
         <v>233</v>
       </c>
+      <c r="J232" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="K232" s="1" t="s">
         <v>249</v>
       </c>
@@ -10186,6 +10207,9 @@
       <c r="G233" t="s">
         <v>243</v>
       </c>
+      <c r="J233" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="K233" s="1" t="s">
         <v>249</v>
       </c>
@@ -10217,6 +10241,9 @@
       <c r="G234" t="s">
         <v>244</v>
       </c>
+      <c r="J234" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="K234" s="1" t="s">
         <v>249</v>
       </c>
@@ -10248,6 +10275,9 @@
       <c r="G235" t="s">
         <v>245</v>
       </c>
+      <c r="J235" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="K235" s="1" t="s">
         <v>249</v>
       </c>
@@ -10279,6 +10309,9 @@
       <c r="G236" t="s">
         <v>246</v>
       </c>
+      <c r="J236" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="K236" s="1" t="s">
         <v>249</v>
       </c>
@@ -10310,6 +10343,9 @@
       <c r="G237" t="s">
         <v>247</v>
       </c>
+      <c r="J237" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="K237" s="1" t="s">
         <v>249</v>
       </c>
@@ -10341,6 +10377,9 @@
       <c r="G238" t="s">
         <v>248</v>
       </c>
+      <c r="J238" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="K238" s="1" t="s">
         <v>249</v>
       </c>
@@ -10375,6 +10414,9 @@
       <c r="H239" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="J239" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="K239" s="1" t="s">
         <v>249</v>
       </c>
@@ -10409,6 +10451,9 @@
       <c r="H240" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="J240" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="K240" s="1" t="s">
         <v>249</v>
       </c>
@@ -10443,6 +10488,9 @@
       <c r="H241" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="J241" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="K241" s="1" t="s">
         <v>249</v>
       </c>
@@ -10477,6 +10525,9 @@
       <c r="H242" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="J242" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="K242" s="1" t="s">
         <v>249</v>
       </c>
@@ -10511,6 +10562,9 @@
       <c r="H243" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="J243" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="K243" s="1" t="s">
         <v>249</v>
       </c>
@@ -10544,6 +10598,9 @@
       </c>
       <c r="H244" s="1" t="s">
         <v>189</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="K244" s="1" t="s">
         <v>249</v>
